--- a/Шаблон отчета.xlsx
+++ b/Шаблон отчета.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4083D920-9521-4A98-BBBE-8A3B0C9EFEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C46E807-3AD6-4ECD-A579-AC17D023AA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="Свойства">'[1]Риск и неопределенности'!$O$13:$O$14</definedName>
+    <definedName name="Скв">'[1]Риск и неопределенности'!$O$17:$O$26</definedName>
+    <definedName name="СРР">'[1]Риск и неопределенности'!$O$2:$O$4</definedName>
+  </definedNames>
   <calcPr calcId="191029" calcMode="manual" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
   <si>
     <t>Вероятностная оценка запасов</t>
   </si>
@@ -1099,6 +1107,31 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">M = 10,08; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> = 6,03</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
@@ -1123,32 +1156,43 @@
     <t>-</t>
   </si>
   <si>
-    <t>Коэффициент проницаемости kпр, мД</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">M = 10,08; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> = 6,03</t>
-    </r>
+    <t>Риски и неопределенности</t>
+  </si>
+  <si>
+    <t>Количество разведочных скважин с проведением ГИС</t>
+  </si>
+  <si>
+    <t>Удаленность от существующей инфраструктуры, км</t>
+  </si>
+  <si>
+    <t>Показатель</t>
+  </si>
+  <si>
+    <t>Критерий</t>
+  </si>
+  <si>
+    <t>Вес</t>
+  </si>
+  <si>
+    <t>Сейсморазведочные работы</t>
+  </si>
+  <si>
+    <t>Плотность сетки разведочного бурения</t>
+  </si>
+  <si>
+    <t>Керновые исследования</t>
+  </si>
+  <si>
+    <t>Доля запасов категории С1</t>
+  </si>
+  <si>
+    <t>Физико-химические свойства углеводородов</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Коэфифициент изученности, д.е.</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1354,19 +1398,26 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -1443,7 +1494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1483,10 +1534,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1496,14 +1552,8 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1512,12 +1562,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1538,11 +1582,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1574,41 +1630,45 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1905,6 +1965,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Абаканский"/>
+      <sheetName val="Ботуб"/>
+      <sheetName val="Риск и неопределенности"/>
+      <sheetName val="Перспектива"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="O2" t="str">
+            <v>2D-сейсмика</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="O3" t="str">
+            <v>3D-сейсмика</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="O4" t="str">
+            <v>Отсутствуют</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="O13" t="str">
+            <v>Есть</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="O14" t="str">
+            <v>Нет</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="O17">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="O18">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="O19">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="O20">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="O21">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="O22">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="O23">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="O24">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="O25">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="O26">
+            <v>10</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -2168,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2186,86 +2344,86 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="11"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -2280,265 +2438,268 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="16"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30" t="s">
+      <c r="G10" s="29"/>
+      <c r="H10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="4" t="s">
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="15" t="s">
         <v>20</v>
       </c>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="34" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="36"/>
+      <c r="H11" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="4"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="34" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="36"/>
+      <c r="H12" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="4"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="34" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="36"/>
+      <c r="H13" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="4"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="5"/>
       <c r="M13"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="34" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="30" t="s">
+      <c r="G14" s="36"/>
+      <c r="H14" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="4"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="5"/>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="34" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="4">
+      <c r="G15" s="36"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="15">
         <v>0.67</v>
       </c>
+      <c r="L15" s="5"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>6</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="34" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="4">
+      <c r="G16" s="36"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="15">
         <v>320.5</v>
       </c>
-      <c r="L16"/>
+      <c r="L16" s="5"/>
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="34" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="4">
+      <c r="G17" s="36"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="15">
         <v>32.299999999999997</v>
       </c>
-      <c r="L17"/>
+      <c r="L17" s="5"/>
       <c r="M17"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="34" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="4">
+      <c r="G18" s="36"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="15">
         <v>0.91</v>
       </c>
-      <c r="L18"/>
+      <c r="L18" s="5"/>
       <c r="M18"/>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>9</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="34" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="4">
+      <c r="G19" s="36"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="15">
         <v>0.93</v>
       </c>
-      <c r="L19"/>
+      <c r="L19" s="5"/>
       <c r="M19"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="L20"/>
       <c r="M20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="1">
         <v>1000</v>
       </c>
-      <c r="L21"/>
       <c r="M21"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L22"/>
       <c r="M22"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2553,7 +2714,6 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="L23"/>
       <c r="M23"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,7 +2725,6 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="L24"/>
       <c r="M24"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" x14ac:dyDescent="0.35">
@@ -2578,7 +2737,6 @@
       <c r="D25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L25"/>
       <c r="M25"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2647,62 +2805,62 @@
       <c r="L30"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="str">
+      <c r="A31" s="48" t="str">
         <f>"Выводы: по сценариям Р90, Р50, Р10 получилось, что с вероятностью 90% начальные геологические запасы газа составят "&amp;C25&amp;" млрд м3, с вероятностью 50% - "&amp;C27&amp;" млрд м3,  с вероятностью 10% - "&amp;C29&amp;" млрд м3"</f>
         <v>Выводы: по сценариям Р90, Р50, Р10 получилось, что с вероятностью 90% начальные геологические запасы газа составят 6655,5 млрд м3, с вероятностью 50% - 8530,8 млрд м3,  с вероятностью 10% - 10406,1 млрд м3</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
       <c r="L31"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2865,262 +3023,262 @@
       <c r="L47"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
       <c r="L48"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
       <c r="L49"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
       <c r="L50"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
       <c r="L51"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
       <c r="L53"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
       <c r="L54"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
       <c r="L55"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
       <c r="L56"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
       <c r="L57"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
       <c r="L58"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
       <c r="L59"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
       <c r="L60"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
       <c r="L61"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
       <c r="L63"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
       <c r="L64"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
       <c r="L65"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
       <c r="L66"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="45"/>
       <c r="L67"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -3137,44 +3295,44 @@
       <c r="L68"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
       <c r="L69"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
       <c r="L70"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
       <c r="L71"/>
     </row>
     <row r="72" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
@@ -3204,120 +3362,120 @@
       <c r="L73"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
       <c r="L74"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
       <c r="L75"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
       <c r="L76"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
       <c r="L77"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
       <c r="L78"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
       <c r="L79"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
       <c r="L80"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
       <c r="L81"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="45"/>
       <c r="L82"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3334,18 +3492,18 @@
       <c r="L83"/>
     </row>
     <row r="84" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="41"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
       <c r="L84"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3361,7 +3519,7 @@
       <c r="K85" s="8"/>
       <c r="L85"/>
     </row>
-    <row r="86" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -3372,9 +3530,9 @@
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
-      <c r="L86" s="11"/>
-    </row>
-    <row r="87" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="L86"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -3385,7 +3543,7 @@
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
-      <c r="L87" s="11"/>
+      <c r="L87"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
@@ -3398,8 +3556,9 @@
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
-    </row>
-    <row r="89" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -3410,7 +3569,7 @@
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
-      <c r="L89" s="15"/>
+      <c r="L89"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
@@ -3423,6 +3582,7 @@
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
+      <c r="L90"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
@@ -3435,6 +3595,7 @@
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
+      <c r="L91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
@@ -3447,6 +3608,7 @@
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
+      <c r="L92"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
@@ -3459,6 +3621,7 @@
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
+      <c r="L93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
@@ -3471,6 +3634,7 @@
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
+      <c r="L94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
@@ -3483,395 +3647,403 @@
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
+      <c r="L95"/>
     </row>
     <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-    </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-    </row>
-    <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="22" t="s">
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="11"/>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="11"/>
+    </row>
+    <row r="99" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="22"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="52" t="s">
+      <c r="B99" s="49"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
+    </row>
+    <row r="101" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="53"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="52" t="s">
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F101" s="54"/>
-      <c r="G101" s="52" t="s">
+      <c r="F101" s="27"/>
+      <c r="G101" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="53"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="52" t="s">
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K101" s="54"/>
-    </row>
-    <row r="102" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="55" t="s">
+      <c r="K101" s="27"/>
+    </row>
+    <row r="102" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="26"/>
+      <c r="G102" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J103" s="18"/>
+      <c r="K103" s="19"/>
+    </row>
+    <row r="104" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A104" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K104" s="27"/>
+    </row>
+    <row r="105" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="39">
+        <v>5</v>
+      </c>
+      <c r="K105" s="40"/>
+    </row>
+    <row r="106" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="41">
+        <v>0.98</v>
+      </c>
+      <c r="K106" s="42"/>
+    </row>
+    <row r="107" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A107" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="41">
+        <v>1.05</v>
+      </c>
+      <c r="K107" s="42"/>
+    </row>
+    <row r="108" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A108" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="41">
+        <v>1</v>
+      </c>
+      <c r="K108" s="42"/>
+    </row>
+    <row r="109" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="41">
+        <v>6</v>
+      </c>
+      <c r="K109" s="42"/>
+    </row>
+    <row r="110" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="K110" s="42"/>
+    </row>
+    <row r="111" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="41">
+        <v>2700</v>
+      </c>
+      <c r="K111" s="42"/>
+    </row>
+    <row r="112" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A112" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="41">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="K112" s="42"/>
+    </row>
+    <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="41">
+        <v>7.5</v>
+      </c>
+      <c r="K113" s="42"/>
+    </row>
+    <row r="114" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A114" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B102" s="56"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" s="51"/>
-      <c r="G102" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="H102" s="50"/>
-      <c r="I102" s="51"/>
-      <c r="J102" s="52"/>
-      <c r="K102" s="54"/>
-    </row>
-    <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K104" s="28"/>
-    </row>
-    <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="36">
+      <c r="K114" s="42"/>
+    </row>
+    <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A115" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="41">
         <v>5</v>
       </c>
-      <c r="K105" s="37"/>
-    </row>
-    <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="31"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="38">
-        <v>0.98</v>
-      </c>
-      <c r="K106" s="39"/>
-    </row>
-    <row r="107" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="38">
-        <v>1.05</v>
-      </c>
-      <c r="K107" s="39"/>
-    </row>
-    <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A108" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="38">
-        <v>1</v>
-      </c>
-      <c r="K108" s="39"/>
-    </row>
-    <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="38">
-        <v>6</v>
-      </c>
-      <c r="K109" s="39"/>
-    </row>
-    <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="K110" s="39"/>
-    </row>
-    <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="38">
-        <v>2700</v>
-      </c>
-      <c r="K111" s="39"/>
-    </row>
-    <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="38">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K112" s="39"/>
-    </row>
-    <row r="113" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="38">
-        <v>7.5</v>
-      </c>
-      <c r="K113" s="39"/>
-    </row>
-    <row r="114" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="31"/>
-      <c r="J114" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="K114" s="39"/>
-    </row>
-    <row r="115" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="31"/>
-      <c r="J115" s="38">
-        <v>5</v>
-      </c>
-      <c r="K115" s="39"/>
-    </row>
-    <row r="117" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="32" t="s">
+      <c r="K115" s="42"/>
+    </row>
+    <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A117" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
-      <c r="J117" s="32"/>
-      <c r="K117" s="32"/>
-    </row>
-    <row r="118" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A118" s="31" t="s">
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="31"/>
+      <c r="K117" s="31"/>
+    </row>
+    <row r="118" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="31"/>
-      <c r="J118" s="28">
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="27">
         <v>9.5200000000000005E-4</v>
       </c>
-      <c r="K118" s="28"/>
-    </row>
-    <row r="119" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A119" s="31" t="s">
+      <c r="K118" s="27"/>
+    </row>
+    <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A119" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="31"/>
-      <c r="J119" s="28">
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="27">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="K119" s="28"/>
-    </row>
-    <row r="120" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="31" t="s">
+      <c r="K119" s="27"/>
+    </row>
+    <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A120" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
-      <c r="J120" s="28">
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="27">
         <v>1.9E-2</v>
       </c>
-      <c r="K120" s="28"/>
-    </row>
-    <row r="121" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A121" s="31" t="s">
+      <c r="K120" s="27"/>
+    </row>
+    <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A121" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="31"/>
-      <c r="J121" s="28">
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="27">
         <v>2500</v>
       </c>
-      <c r="K121" s="28"/>
-    </row>
-    <row r="122" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="31" t="s">
+      <c r="K121" s="27"/>
+    </row>
+    <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A122" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="31"/>
-      <c r="J122" s="28">
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="27">
         <v>310</v>
       </c>
-      <c r="K122" s="28"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K122" s="27"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -3884,158 +4056,156 @@
       <c r="J123"/>
       <c r="K123"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
-      <c r="B124" s="44"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="44"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="44"/>
-      <c r="I124" s="44"/>
-      <c r="J124" s="44"/>
-      <c r="K124" s="44"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="47"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="47"/>
+      <c r="K124" s="47"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
-      <c r="B125" s="44"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="44"/>
-      <c r="E125" s="44"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="44"/>
-      <c r="H125" s="44"/>
-      <c r="I125" s="44"/>
-      <c r="J125" s="44"/>
-      <c r="K125" s="44"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="47"/>
+      <c r="C125" s="47"/>
+      <c r="D125" s="47"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
+      <c r="I125" s="47"/>
+      <c r="J125" s="47"/>
+      <c r="K125" s="47"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
-      <c r="B126" s="44"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="44"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="44"/>
-      <c r="I126" s="44"/>
-      <c r="J126" s="44"/>
-      <c r="K126" s="44"/>
-    </row>
-    <row r="127" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="44"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="44"/>
-      <c r="I127" s="44"/>
-      <c r="J127" s="44"/>
-      <c r="K127" s="44"/>
-      <c r="L127" s="11"/>
-    </row>
-    <row r="128" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="44"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="44"/>
-      <c r="E128" s="44"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="44"/>
-      <c r="I128" s="44"/>
-      <c r="J128" s="44"/>
-      <c r="K128" s="44"/>
-      <c r="L128" s="11"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B129" s="44"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="44"/>
-      <c r="E129" s="44"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="44"/>
-      <c r="I129" s="44"/>
-      <c r="J129" s="44"/>
-      <c r="K129" s="44"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B130" s="44"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="44"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="44"/>
-      <c r="I130" s="44"/>
-      <c r="J130" s="44"/>
-      <c r="K130" s="44"/>
-    </row>
-    <row r="131" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="44"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="44"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="44"/>
-      <c r="I131" s="44"/>
-      <c r="J131" s="44"/>
-      <c r="K131" s="44"/>
-    </row>
-    <row r="132" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="44"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="44"/>
-      <c r="I132" s="44"/>
-      <c r="J132" s="44"/>
-      <c r="K132" s="44"/>
-    </row>
-    <row r="133" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="44"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="44"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="44"/>
-      <c r="I133" s="44"/>
-      <c r="J133" s="44"/>
-      <c r="K133" s="44"/>
-    </row>
-    <row r="134" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="44"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="44"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="44"/>
-      <c r="I134" s="44"/>
-      <c r="J134" s="44"/>
-      <c r="K134" s="44"/>
-    </row>
-    <row r="135" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="43" t="s">
+      <c r="B126" s="47"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
+      <c r="H126" s="47"/>
+      <c r="I126" s="47"/>
+      <c r="J126" s="47"/>
+      <c r="K126" s="47"/>
+    </row>
+    <row r="127" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="47"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="47"/>
+      <c r="I127" s="47"/>
+      <c r="J127" s="47"/>
+      <c r="K127" s="47"/>
+    </row>
+    <row r="128" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="47"/>
+      <c r="C128" s="47"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47"/>
+      <c r="I128" s="47"/>
+      <c r="J128" s="47"/>
+      <c r="K128" s="47"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="47"/>
+      <c r="C129" s="47"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
+      <c r="J129" s="47"/>
+      <c r="K129" s="47"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="47"/>
+      <c r="C130" s="47"/>
+      <c r="D130" s="47"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="47"/>
+      <c r="G130" s="47"/>
+      <c r="H130" s="47"/>
+      <c r="I130" s="47"/>
+      <c r="J130" s="47"/>
+      <c r="K130" s="47"/>
+    </row>
+    <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="47"/>
+      <c r="C131" s="47"/>
+      <c r="D131" s="47"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="47"/>
+      <c r="I131" s="47"/>
+      <c r="J131" s="47"/>
+      <c r="K131" s="47"/>
+    </row>
+    <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="47"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="47"/>
+      <c r="I132" s="47"/>
+      <c r="J132" s="47"/>
+      <c r="K132" s="47"/>
+    </row>
+    <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="47"/>
+      <c r="C133" s="47"/>
+      <c r="D133" s="47"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="47"/>
+      <c r="I133" s="47"/>
+      <c r="J133" s="47"/>
+      <c r="K133" s="47"/>
+    </row>
+    <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="47"/>
+      <c r="C134" s="47"/>
+      <c r="D134" s="47"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="47"/>
+      <c r="K134" s="47"/>
+    </row>
+    <row r="135" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C135" s="43"/>
-      <c r="D135" s="43"/>
-      <c r="E135" s="43"/>
-      <c r="F135" s="43"/>
-      <c r="G135" s="43"/>
-      <c r="H135" s="43"/>
-      <c r="I135" s="43"/>
-      <c r="J135" s="43"/>
-      <c r="K135" s="43"/>
-    </row>
-    <row r="136" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="46"/>
+      <c r="D135" s="46"/>
+      <c r="E135" s="46"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="46"/>
+      <c r="H135" s="46"/>
+      <c r="I135" s="46"/>
+      <c r="J135" s="46"/>
+      <c r="K135" s="46"/>
+    </row>
+    <row r="136" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
       <c r="D136" s="14"/>
@@ -4047,482 +4217,670 @@
       <c r="J136" s="14"/>
       <c r="K136" s="14"/>
     </row>
-    <row r="137" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
-      <c r="I137" s="21"/>
-      <c r="J137" s="21"/>
-      <c r="K137" s="21"/>
-    </row>
-    <row r="138" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="21"/>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="21"/>
-      <c r="J138" s="21"/>
-      <c r="K138" s="21"/>
-    </row>
-    <row r="139" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
+    <row r="137" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="23"/>
+      <c r="J137" s="23"/>
+      <c r="K137" s="23"/>
+      <c r="L137" s="11"/>
+    </row>
+    <row r="138" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="23"/>
+      <c r="J138" s="23"/>
+      <c r="K138" s="23"/>
+      <c r="L138" s="11"/>
+    </row>
+    <row r="139" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B139" s="52"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="52"/>
+      <c r="F139" s="52"/>
+      <c r="G139" s="52"/>
+      <c r="H139" s="53">
+        <v>1</v>
+      </c>
+      <c r="J139" s="54"/>
+      <c r="K139" s="54"/>
+    </row>
+    <row r="140" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B140" s="52"/>
+      <c r="C140" s="52"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="52"/>
+      <c r="F140" s="52"/>
+      <c r="G140" s="52"/>
+      <c r="H140" s="55">
+        <v>2000</v>
+      </c>
+      <c r="J140" s="54"/>
+      <c r="K140" s="54"/>
+    </row>
+    <row r="141" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B140" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G140" s="25"/>
-      <c r="H140" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="I140" s="25"/>
-      <c r="J140" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K140" s="25"/>
-    </row>
-    <row r="141" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="13">
+      <c r="B142" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C142" s="56"/>
+      <c r="D142" s="56"/>
+      <c r="E142" s="56"/>
+      <c r="F142" s="56"/>
+      <c r="G142" s="56"/>
+      <c r="H142" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="I142" s="56"/>
+      <c r="J142" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="K142" s="53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="13">
         <v>1</v>
       </c>
-      <c r="B141" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="17">
-        <v>6655.5</v>
-      </c>
-      <c r="G141" s="18"/>
-      <c r="H141" s="17">
-        <v>8530.7999999999993</v>
-      </c>
-      <c r="I141" s="18"/>
-      <c r="J141" s="17">
-        <v>10406.1</v>
-      </c>
-      <c r="K141" s="18"/>
-    </row>
-    <row r="142" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="13">
+      <c r="B143" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C143" s="56"/>
+      <c r="D143" s="56"/>
+      <c r="E143" s="56"/>
+      <c r="F143" s="56"/>
+      <c r="G143" s="56"/>
+      <c r="H143" s="56"/>
+      <c r="I143" s="56"/>
+      <c r="J143" s="53"/>
+      <c r="K143" s="53"/>
+    </row>
+    <row r="144" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="13">
         <v>2</v>
       </c>
-      <c r="B142" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="23">
-        <v>3711</v>
-      </c>
-      <c r="G142" s="24"/>
-      <c r="H142" s="23">
-        <v>38554</v>
-      </c>
-      <c r="I142" s="24"/>
-      <c r="J142" s="23">
-        <v>39997</v>
-      </c>
-      <c r="K142" s="24"/>
-    </row>
-    <row r="143" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="13">
-        <v>3</v>
-      </c>
-      <c r="B143" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="17">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="G143" s="18"/>
-      <c r="H143" s="17">
-        <v>11.09</v>
-      </c>
-      <c r="I143" s="18"/>
-      <c r="J143" s="17">
-        <v>12.22</v>
-      </c>
-      <c r="K143" s="18"/>
-    </row>
-    <row r="144" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="13">
-        <v>4</v>
-      </c>
-      <c r="B144" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="17">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="G144" s="18"/>
-      <c r="H144" s="17">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="I144" s="18"/>
-      <c r="J144" s="17">
-        <v>0.108</v>
-      </c>
-      <c r="K144" s="18"/>
+      <c r="B144" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C144" s="57"/>
+      <c r="D144" s="57"/>
+      <c r="E144" s="57"/>
+      <c r="F144" s="57"/>
+      <c r="G144" s="57"/>
+      <c r="H144" s="56"/>
+      <c r="I144" s="56"/>
+      <c r="J144" s="53"/>
+      <c r="K144" s="53"/>
     </row>
     <row r="145" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="13">
-        <v>5</v>
-      </c>
-      <c r="B145" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="26">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="G145" s="27"/>
-      <c r="H145" s="26">
-        <v>0.69</v>
-      </c>
-      <c r="I145" s="27"/>
-      <c r="J145" s="26">
-        <v>0.69</v>
-      </c>
-      <c r="K145" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="B145" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145" s="56"/>
+      <c r="D145" s="56"/>
+      <c r="E145" s="56"/>
+      <c r="F145" s="56"/>
+      <c r="G145" s="56"/>
+      <c r="H145" s="56"/>
+      <c r="I145" s="56"/>
+      <c r="J145" s="53"/>
+      <c r="K145" s="53"/>
     </row>
     <row r="146" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="13">
-        <v>6</v>
-      </c>
-      <c r="B146" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="26">
-        <v>320.5</v>
-      </c>
-      <c r="G146" s="27"/>
-      <c r="H146" s="26">
-        <v>320.5</v>
-      </c>
-      <c r="I146" s="27"/>
-      <c r="J146" s="26">
-        <v>320.5</v>
-      </c>
-      <c r="K146" s="27"/>
+        <v>4</v>
+      </c>
+      <c r="B146" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C146" s="56"/>
+      <c r="D146" s="56"/>
+      <c r="E146" s="56"/>
+      <c r="F146" s="56"/>
+      <c r="G146" s="56"/>
+      <c r="H146" s="56"/>
+      <c r="I146" s="56"/>
+      <c r="J146" s="53"/>
+      <c r="K146" s="53"/>
     </row>
     <row r="147" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="13">
+        <v>5</v>
+      </c>
+      <c r="B147" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C147" s="57"/>
+      <c r="D147" s="57"/>
+      <c r="E147" s="57"/>
+      <c r="F147" s="57"/>
+      <c r="G147" s="57"/>
+      <c r="H147" s="56"/>
+      <c r="I147" s="56"/>
+      <c r="J147" s="53"/>
+      <c r="K147" s="53"/>
+    </row>
+    <row r="148" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B148" s="56"/>
+      <c r="C148" s="56"/>
+      <c r="D148" s="56"/>
+      <c r="E148" s="56"/>
+      <c r="F148" s="56"/>
+      <c r="G148" s="56"/>
+      <c r="H148" s="56"/>
+      <c r="I148" s="56"/>
+      <c r="J148" s="53"/>
+      <c r="K148" s="53">
+        <f>SUM(K143:K147)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="54"/>
+      <c r="B149" s="54"/>
+      <c r="C149" s="54"/>
+      <c r="D149" s="54"/>
+      <c r="E149" s="54"/>
+      <c r="F149" s="54"/>
+      <c r="G149" s="54"/>
+      <c r="H149" s="54"/>
+      <c r="I149" s="16"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="14"/>
+    </row>
+    <row r="150" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150" s="58"/>
+      <c r="C150" s="58"/>
+      <c r="D150" s="58"/>
+      <c r="E150" s="58"/>
+      <c r="F150" s="59">
+        <f>SUMPRODUCT(J143:J147,K143:K147)</f>
+        <v>0</v>
+      </c>
+      <c r="G150" s="54"/>
+      <c r="H150" s="54"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
+    </row>
+    <row r="151" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23"/>
+      <c r="H165" s="23"/>
+      <c r="I165" s="23"/>
+      <c r="J165" s="23"/>
+      <c r="K165" s="23"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="23"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23"/>
+      <c r="G166" s="23"/>
+      <c r="H166" s="23"/>
+      <c r="I166" s="23"/>
+      <c r="J166" s="23"/>
+      <c r="K166" s="23"/>
+    </row>
+    <row r="168" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="26"/>
+      <c r="F168" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G168" s="26"/>
+      <c r="H168" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I168" s="26"/>
+      <c r="J168" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K168" s="26"/>
+    </row>
+    <row r="169" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="13">
+        <v>1</v>
+      </c>
+      <c r="B169" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="20">
+        <v>6655.5</v>
+      </c>
+      <c r="G169" s="21"/>
+      <c r="H169" s="20">
+        <v>8530.7999999999993</v>
+      </c>
+      <c r="I169" s="21"/>
+      <c r="J169" s="20">
+        <v>10406.1</v>
+      </c>
+      <c r="K169" s="21"/>
+    </row>
+    <row r="170" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="13">
+        <v>2</v>
+      </c>
+      <c r="B170" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="28"/>
+      <c r="F170" s="24">
+        <v>3711</v>
+      </c>
+      <c r="G170" s="25"/>
+      <c r="H170" s="24">
+        <v>38554</v>
+      </c>
+      <c r="I170" s="25"/>
+      <c r="J170" s="24">
+        <v>39997</v>
+      </c>
+      <c r="K170" s="25"/>
+    </row>
+    <row r="171" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="13">
+        <v>3</v>
+      </c>
+      <c r="B171" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="28"/>
+      <c r="F171" s="20">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="G171" s="21"/>
+      <c r="H171" s="20">
+        <v>11.09</v>
+      </c>
+      <c r="I171" s="21"/>
+      <c r="J171" s="20">
+        <v>12.22</v>
+      </c>
+      <c r="K171" s="21"/>
+    </row>
+    <row r="172" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="13">
+        <v>4</v>
+      </c>
+      <c r="B172" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="20">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G172" s="21"/>
+      <c r="H172" s="20">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="I172" s="21"/>
+      <c r="J172" s="20">
+        <v>0.108</v>
+      </c>
+      <c r="K172" s="21"/>
+    </row>
+    <row r="173" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="13">
+        <v>5</v>
+      </c>
+      <c r="B173" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C173" s="28"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="28"/>
+      <c r="F173" s="60">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="G173" s="61"/>
+      <c r="H173" s="60">
+        <v>0.69</v>
+      </c>
+      <c r="I173" s="61"/>
+      <c r="J173" s="60">
+        <v>0.69</v>
+      </c>
+      <c r="K173" s="61"/>
+    </row>
+    <row r="174" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="13">
+        <v>6</v>
+      </c>
+      <c r="B174" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C174" s="28"/>
+      <c r="D174" s="28"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="60">
+        <v>320.5</v>
+      </c>
+      <c r="G174" s="61"/>
+      <c r="H174" s="60">
+        <v>320.5</v>
+      </c>
+      <c r="I174" s="61"/>
+      <c r="J174" s="60">
+        <v>320.5</v>
+      </c>
+      <c r="K174" s="61"/>
+    </row>
+    <row r="175" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="13">
         <v>7</v>
       </c>
-      <c r="B147" s="29" t="s">
+      <c r="B175" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="20">
+      <c r="C175" s="28"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="62">
         <v>32.299999999999997</v>
       </c>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20">
+      <c r="G175" s="62"/>
+      <c r="H175" s="62">
         <v>32.299999999999997</v>
       </c>
-      <c r="I147" s="20"/>
-      <c r="J147" s="20">
+      <c r="I175" s="62"/>
+      <c r="J175" s="62">
         <v>32.299999999999997</v>
       </c>
-      <c r="K147" s="20"/>
-    </row>
-    <row r="148" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="13">
+      <c r="K175" s="62"/>
+    </row>
+    <row r="176" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="13">
         <v>8</v>
       </c>
-      <c r="B148" s="29" t="s">
+      <c r="B176" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C148" s="29"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="20">
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="28"/>
+      <c r="F176" s="62">
         <v>0.91</v>
       </c>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20">
+      <c r="G176" s="62"/>
+      <c r="H176" s="62">
         <v>0.91</v>
       </c>
-      <c r="I148" s="20"/>
-      <c r="J148" s="20">
+      <c r="I176" s="62"/>
+      <c r="J176" s="62">
         <v>0.91</v>
       </c>
-      <c r="K148" s="20"/>
-    </row>
-    <row r="149" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="13">
+      <c r="K176" s="62"/>
+    </row>
+    <row r="177" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="13">
         <v>9</v>
       </c>
-      <c r="B149" s="29" t="s">
+      <c r="B177" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C149" s="29"/>
-      <c r="D149" s="29"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="20">
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="62">
         <v>0.93</v>
       </c>
-      <c r="G149" s="20"/>
-      <c r="H149" s="20">
+      <c r="G177" s="62"/>
+      <c r="H177" s="62">
         <v>0.93</v>
       </c>
-      <c r="I149" s="20"/>
-      <c r="J149" s="20">
+      <c r="I177" s="62"/>
+      <c r="J177" s="62">
         <v>0.93</v>
       </c>
-      <c r="K149" s="20"/>
-    </row>
-    <row r="150" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="13">
+      <c r="K177" s="62"/>
+    </row>
+    <row r="178" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="13">
         <v>10</v>
       </c>
-      <c r="B150" s="29" t="s">
+      <c r="B178" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="19">
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="22">
         <v>332</v>
       </c>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19">
+      <c r="G178" s="22"/>
+      <c r="H178" s="22">
         <v>426.5</v>
       </c>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19">
+      <c r="I178" s="22"/>
+      <c r="J178" s="22">
         <v>520.29999999999995</v>
       </c>
-      <c r="K150" s="19"/>
-    </row>
-    <row r="151" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="13">
+      <c r="K178" s="22"/>
+    </row>
+    <row r="179" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="13">
         <v>11</v>
       </c>
-      <c r="B151" s="29" t="s">
+      <c r="B179" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="19">
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="22">
         <v>5390.5</v>
       </c>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19">
+      <c r="G179" s="22"/>
+      <c r="H179" s="22">
         <v>6739.3</v>
       </c>
-      <c r="I151" s="19"/>
-      <c r="J151" s="19">
+      <c r="I179" s="22"/>
+      <c r="J179" s="22">
         <v>8012.6</v>
       </c>
-      <c r="K151" s="19"/>
-    </row>
-    <row r="152" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="13">
+      <c r="K179" s="22"/>
+    </row>
+    <row r="180" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="13">
         <v>12</v>
       </c>
-      <c r="B152" s="29" t="s">
+      <c r="B180" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="17">
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="28"/>
+      <c r="F180" s="20">
         <v>81</v>
       </c>
-      <c r="G152" s="18"/>
-      <c r="H152" s="17">
+      <c r="G180" s="21"/>
+      <c r="H180" s="20">
         <v>79</v>
       </c>
-      <c r="I152" s="18"/>
-      <c r="J152" s="17">
+      <c r="I180" s="21"/>
+      <c r="J180" s="20">
         <v>77</v>
       </c>
-      <c r="K152" s="18"/>
-    </row>
-    <row r="153" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="13">
+      <c r="K180" s="21"/>
+    </row>
+    <row r="181" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="13">
         <v>13</v>
       </c>
-      <c r="B153" s="29" t="s">
+      <c r="B181" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="17">
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
+      <c r="F181" s="20">
         <v>2</v>
       </c>
-      <c r="G153" s="18"/>
-      <c r="H153" s="17">
+      <c r="G181" s="21"/>
+      <c r="H181" s="20">
         <v>5</v>
       </c>
-      <c r="I153" s="18"/>
-      <c r="J153" s="17">
+      <c r="I181" s="21"/>
+      <c r="J181" s="20">
         <v>8</v>
       </c>
-      <c r="K153" s="18"/>
-    </row>
-    <row r="154" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="13">
+      <c r="K181" s="21"/>
+    </row>
+    <row r="182" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="13">
         <v>14</v>
       </c>
-      <c r="B154" s="29" t="s">
+      <c r="B182" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="17">
+      <c r="C182" s="28"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="28"/>
+      <c r="F182" s="20">
         <v>23</v>
       </c>
-      <c r="G154" s="18"/>
-      <c r="H154" s="17">
+      <c r="G182" s="21"/>
+      <c r="H182" s="20">
         <v>28</v>
       </c>
-      <c r="I154" s="18"/>
-      <c r="J154" s="17">
+      <c r="I182" s="21"/>
+      <c r="J182" s="20">
         <v>35</v>
       </c>
-      <c r="K154" s="18"/>
+      <c r="K182" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="170">
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A137:K138"/>
+    <mergeCell ref="A139:G139"/>
+    <mergeCell ref="A140:G140"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="B135:K135"/>
+    <mergeCell ref="B124:K134"/>
     <mergeCell ref="A31:K34"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A99:L99"/>
     <mergeCell ref="A104:I104"/>
     <mergeCell ref="A105:I105"/>
     <mergeCell ref="A106:I106"/>
     <mergeCell ref="A107:I107"/>
     <mergeCell ref="A108:I108"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="B69:K71"/>
-    <mergeCell ref="B48:K67"/>
-    <mergeCell ref="B84:K84"/>
-    <mergeCell ref="B74:K82"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="B150:E150"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="B135:K135"/>
-    <mergeCell ref="B124:K134"/>
     <mergeCell ref="A109:I109"/>
     <mergeCell ref="A110:I110"/>
     <mergeCell ref="A111:I111"/>
     <mergeCell ref="A112:I112"/>
     <mergeCell ref="A113:I113"/>
     <mergeCell ref="A114:I114"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A96:K97"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A117:K117"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A120:I120"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="B181:E181"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="B173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="A8:K8"/>
     <mergeCell ref="J119:K119"/>
     <mergeCell ref="J120:K120"/>
     <mergeCell ref="J121:K121"/>
@@ -4538,44 +4896,107 @@
     <mergeCell ref="J112:K112"/>
     <mergeCell ref="J113:K113"/>
     <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="J140:K140"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="F149:G149"/>
     <mergeCell ref="J115:K115"/>
     <mergeCell ref="J118:K118"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="A118:I118"/>
-    <mergeCell ref="A119:I119"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A99:K99"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="A137:K138"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="B69:K71"/>
+    <mergeCell ref="B48:K67"/>
+    <mergeCell ref="B84:K84"/>
+    <mergeCell ref="B74:K82"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="A96:K97"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A117:K117"/>
+    <mergeCell ref="A165:K166"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="J170:K170"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="J168:K168"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="F171:G171"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="J182:K182"/>
+    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="F181:G181"/>
+    <mergeCell ref="F180:G180"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="H176:I176"/>
   </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H139" xr:uid="{1B36E749-2EB7-4035-BB0B-CF4AC9068D03}">
+      <formula1>Скв</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H147" xr:uid="{54C2613E-4920-4903-9CD0-F91AA17F6018}">
+      <formula1>Свойства</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H143" xr:uid="{95308981-B042-402D-80C1-79C6647BE69D}">
+      <formula1>СРР</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -4590,8 +5011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9A6887-DF7D-4252-9B7A-98675D4E01E3}">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142:G142"/>
+    <sheetView view="pageLayout" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4607,85 +5028,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -4700,236 +5121,236 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30" t="s">
+      <c r="G10" s="29"/>
+      <c r="H10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30" t="s">
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="30"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="34" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="34" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="34" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="34" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="34" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>6</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="34" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="34" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="34" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>9</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="34" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="1">
         <v>1000</v>
       </c>
@@ -5032,62 +5453,62 @@
       <c r="L30"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="str">
+      <c r="A31" s="48" t="str">
         <f>"Выводы: по сценариям Р90, Р50, Р10 получилось, что с вероятностью 90% начальные геологические запасы газа составят "&amp;C25&amp;" млрд м3, с вероятностью 50% - "&amp;C27&amp;" млрд м3,  с вероятностью 10% - "&amp;C29&amp;" млрд м3"</f>
         <v>Выводы: по сценариям Р90, Р50, Р10 получилось, что с вероятностью 90% начальные геологические запасы газа составят 6655,5 млрд м3, с вероятностью 50% - 8530,8 млрд м3,  с вероятностью 10% - 10406,1 млрд м3</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
       <c r="L31"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5250,262 +5671,262 @@
       <c r="L47"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
       <c r="L48"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
       <c r="L49"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
       <c r="L50"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
       <c r="L51"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
       <c r="L52"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
       <c r="L53"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
       <c r="L54"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
       <c r="L55"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
       <c r="L56"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
       <c r="L57"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
       <c r="L58"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
       <c r="L59"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
       <c r="L60"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
       <c r="L61"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
       <c r="L63"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
       <c r="L64"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
       <c r="L65"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
       <c r="L66"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="45"/>
       <c r="L67"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -5522,44 +5943,44 @@
       <c r="L68"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
       <c r="L69"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
       <c r="L70"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
       <c r="L71"/>
     </row>
     <row r="72" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
@@ -5589,120 +6010,120 @@
       <c r="L73"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
       <c r="L74"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
       <c r="L75"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
       <c r="L76"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
       <c r="L77"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
       <c r="L78"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
       <c r="L79"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
       <c r="L80"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
       <c r="L81"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="45"/>
       <c r="L82"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -5719,18 +6140,18 @@
       <c r="L83"/>
     </row>
     <row r="84" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="41"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
       <c r="L84"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5877,360 +6298,360 @@
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
       <c r="L96" s="11"/>
     </row>
     <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
       <c r="L97" s="11"/>
     </row>
     <row r="99" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="48" t="s">
+      <c r="A99" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B99" s="48"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="48"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48"/>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48"/>
-      <c r="L99" s="48"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
     </row>
     <row r="101" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28" t="s">
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28" t="s">
+      <c r="F101" s="27"/>
+      <c r="G101" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28" t="s">
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K101" s="28"/>
+      <c r="K101" s="27"/>
     </row>
     <row r="102" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="25" t="s">
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F102" s="25"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="28"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
     </row>
     <row r="104" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="28" t="s">
+      <c r="A104" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28" t="s">
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K104" s="28"/>
+      <c r="K104" s="27"/>
     </row>
     <row r="105" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
+      <c r="A105" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="37"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="39"/>
+      <c r="K105" s="40"/>
     </row>
     <row r="106" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="31"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="38"/>
-      <c r="K106" s="39"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="41"/>
+      <c r="K106" s="42"/>
     </row>
     <row r="107" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="31" t="s">
+      <c r="A107" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="38"/>
-      <c r="K107" s="39"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="42"/>
     </row>
     <row r="108" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A108" s="31" t="s">
+      <c r="A108" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="38"/>
-      <c r="K108" s="39"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="42"/>
     </row>
     <row r="109" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="38"/>
-      <c r="K109" s="39"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="42"/>
     </row>
     <row r="110" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="31" t="s">
+      <c r="A110" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="38"/>
-      <c r="K110" s="39"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="41"/>
+      <c r="K110" s="42"/>
     </row>
     <row r="111" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="31" t="s">
+      <c r="A111" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="38"/>
-      <c r="K111" s="39"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="42"/>
     </row>
     <row r="112" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="31" t="s">
+      <c r="A112" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="38"/>
-      <c r="K112" s="39"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="41"/>
+      <c r="K112" s="42"/>
     </row>
     <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="38"/>
-      <c r="K113" s="39"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="41"/>
+      <c r="K113" s="42"/>
     </row>
     <row r="114" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="31" t="s">
+      <c r="A114" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="31"/>
-      <c r="J114" s="38"/>
-      <c r="K114" s="39"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="42"/>
     </row>
     <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="31" t="s">
+      <c r="A115" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="31"/>
-      <c r="J115" s="38"/>
-      <c r="K115" s="39"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="41"/>
+      <c r="K115" s="42"/>
     </row>
     <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="32" t="s">
+      <c r="A117" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
-      <c r="J117" s="32"/>
-      <c r="K117" s="32"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="31"/>
+      <c r="K117" s="31"/>
     </row>
     <row r="118" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A118" s="31" t="s">
+      <c r="A118" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="31"/>
-      <c r="J118" s="28"/>
-      <c r="K118" s="28"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="27"/>
+      <c r="K118" s="27"/>
     </row>
     <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A119" s="31" t="s">
+      <c r="A119" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="31"/>
-      <c r="J119" s="28"/>
-      <c r="K119" s="28"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
     </row>
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="31" t="s">
+      <c r="A120" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
-      <c r="J120" s="28"/>
-      <c r="K120" s="28"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="27"/>
+      <c r="K120" s="27"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A121" s="31" t="s">
+      <c r="A121" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="31"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="28"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="27"/>
+      <c r="K121" s="27"/>
     </row>
     <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="31" t="s">
+      <c r="A122" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="31"/>
-      <c r="J122" s="28"/>
-      <c r="K122" s="28"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="27"/>
+      <c r="K122" s="27"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
@@ -6247,152 +6668,152 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
-      <c r="B124" s="44"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="44"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="44"/>
-      <c r="I124" s="44"/>
-      <c r="J124" s="44"/>
-      <c r="K124" s="44"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="47"/>
+      <c r="K124" s="47"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
-      <c r="B125" s="44"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="44"/>
-      <c r="E125" s="44"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="44"/>
-      <c r="H125" s="44"/>
-      <c r="I125" s="44"/>
-      <c r="J125" s="44"/>
-      <c r="K125" s="44"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="47"/>
+      <c r="D125" s="47"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
+      <c r="I125" s="47"/>
+      <c r="J125" s="47"/>
+      <c r="K125" s="47"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
-      <c r="B126" s="44"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="44"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="44"/>
-      <c r="I126" s="44"/>
-      <c r="J126" s="44"/>
-      <c r="K126" s="44"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
+      <c r="H126" s="47"/>
+      <c r="I126" s="47"/>
+      <c r="J126" s="47"/>
+      <c r="K126" s="47"/>
     </row>
     <row r="127" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="44"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="44"/>
-      <c r="I127" s="44"/>
-      <c r="J127" s="44"/>
-      <c r="K127" s="44"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="47"/>
+      <c r="I127" s="47"/>
+      <c r="J127" s="47"/>
+      <c r="K127" s="47"/>
     </row>
     <row r="128" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="44"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="44"/>
-      <c r="E128" s="44"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="44"/>
-      <c r="I128" s="44"/>
-      <c r="J128" s="44"/>
-      <c r="K128" s="44"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="47"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47"/>
+      <c r="I128" s="47"/>
+      <c r="J128" s="47"/>
+      <c r="K128" s="47"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B129" s="44"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="44"/>
-      <c r="E129" s="44"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="44"/>
-      <c r="I129" s="44"/>
-      <c r="J129" s="44"/>
-      <c r="K129" s="44"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="47"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
+      <c r="J129" s="47"/>
+      <c r="K129" s="47"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B130" s="44"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="44"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="44"/>
-      <c r="I130" s="44"/>
-      <c r="J130" s="44"/>
-      <c r="K130" s="44"/>
+      <c r="B130" s="47"/>
+      <c r="C130" s="47"/>
+      <c r="D130" s="47"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="47"/>
+      <c r="G130" s="47"/>
+      <c r="H130" s="47"/>
+      <c r="I130" s="47"/>
+      <c r="J130" s="47"/>
+      <c r="K130" s="47"/>
     </row>
     <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="44"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="44"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="44"/>
-      <c r="I131" s="44"/>
-      <c r="J131" s="44"/>
-      <c r="K131" s="44"/>
+      <c r="B131" s="47"/>
+      <c r="C131" s="47"/>
+      <c r="D131" s="47"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="47"/>
+      <c r="I131" s="47"/>
+      <c r="J131" s="47"/>
+      <c r="K131" s="47"/>
     </row>
     <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="44"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="44"/>
-      <c r="I132" s="44"/>
-      <c r="J132" s="44"/>
-      <c r="K132" s="44"/>
+      <c r="B132" s="47"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="47"/>
+      <c r="I132" s="47"/>
+      <c r="J132" s="47"/>
+      <c r="K132" s="47"/>
     </row>
     <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="44"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="44"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="44"/>
-      <c r="I133" s="44"/>
-      <c r="J133" s="44"/>
-      <c r="K133" s="44"/>
+      <c r="B133" s="47"/>
+      <c r="C133" s="47"/>
+      <c r="D133" s="47"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="47"/>
+      <c r="I133" s="47"/>
+      <c r="J133" s="47"/>
+      <c r="K133" s="47"/>
     </row>
     <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="44"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="44"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="44"/>
-      <c r="I134" s="44"/>
-      <c r="J134" s="44"/>
-      <c r="K134" s="44"/>
+      <c r="B134" s="47"/>
+      <c r="C134" s="47"/>
+      <c r="D134" s="47"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="47"/>
+      <c r="K134" s="47"/>
     </row>
     <row r="135" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="43" t="s">
+      <c r="B135" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C135" s="43"/>
-      <c r="D135" s="43"/>
-      <c r="E135" s="43"/>
-      <c r="F135" s="43"/>
-      <c r="G135" s="43"/>
-      <c r="H135" s="43"/>
-      <c r="I135" s="43"/>
-      <c r="J135" s="43"/>
-      <c r="K135" s="43"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="46"/>
+      <c r="E135" s="46"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="46"/>
+      <c r="H135" s="46"/>
+      <c r="I135" s="46"/>
+      <c r="J135" s="46"/>
+      <c r="K135" s="46"/>
     </row>
     <row r="136" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="14"/>
@@ -6407,33 +6828,33 @@
       <c r="K136" s="14"/>
     </row>
     <row r="137" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="21" t="s">
+      <c r="A137" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
-      <c r="I137" s="21"/>
-      <c r="J137" s="21"/>
-      <c r="K137" s="21"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="23"/>
+      <c r="J137" s="23"/>
+      <c r="K137" s="23"/>
       <c r="L137" s="11"/>
     </row>
     <row r="138" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="21"/>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="21"/>
-      <c r="J138" s="21"/>
-      <c r="K138" s="21"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="23"/>
+      <c r="J138" s="23"/>
+      <c r="K138" s="23"/>
       <c r="L138" s="11"/>
     </row>
     <row r="139" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6441,262 +6862,262 @@
       <c r="A140" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B140" s="25" t="s">
+      <c r="B140" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="25" t="s">
+      <c r="C140" s="26"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G140" s="25"/>
-      <c r="H140" s="25" t="s">
+      <c r="G140" s="26"/>
+      <c r="H140" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I140" s="25"/>
-      <c r="J140" s="25" t="s">
+      <c r="I140" s="26"/>
+      <c r="J140" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K140" s="25"/>
+      <c r="K140" s="26"/>
     </row>
     <row r="141" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="13">
         <v>1</v>
       </c>
-      <c r="B141" s="29" t="s">
+      <c r="B141" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="46"/>
-      <c r="G141" s="47"/>
-      <c r="H141" s="38"/>
-      <c r="I141" s="39"/>
-      <c r="J141" s="38"/>
-      <c r="K141" s="39"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="28"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="51"/>
+      <c r="H141" s="41"/>
+      <c r="I141" s="42"/>
+      <c r="J141" s="41"/>
+      <c r="K141" s="42"/>
     </row>
     <row r="142" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="13">
         <v>2</v>
       </c>
-      <c r="B142" s="29" t="s">
+      <c r="B142" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="38"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="38"/>
-      <c r="I142" s="39"/>
-      <c r="J142" s="38"/>
-      <c r="K142" s="39"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="41"/>
+      <c r="G142" s="42"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="42"/>
+      <c r="J142" s="41"/>
+      <c r="K142" s="42"/>
     </row>
     <row r="143" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="13">
         <v>3</v>
       </c>
-      <c r="B143" s="29" t="s">
+      <c r="B143" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="38"/>
-      <c r="G143" s="39"/>
-      <c r="H143" s="38"/>
-      <c r="I143" s="39"/>
-      <c r="J143" s="38"/>
-      <c r="K143" s="39"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="41"/>
+      <c r="G143" s="42"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="41"/>
+      <c r="K143" s="42"/>
     </row>
     <row r="144" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="13">
         <v>4</v>
       </c>
-      <c r="B144" s="29" t="s">
+      <c r="B144" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="38"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="38"/>
-      <c r="I144" s="39"/>
-      <c r="J144" s="38"/>
-      <c r="K144" s="39"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="41"/>
+      <c r="G144" s="42"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="42"/>
+      <c r="J144" s="41"/>
+      <c r="K144" s="42"/>
     </row>
     <row r="145" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="13">
         <v>5</v>
       </c>
-      <c r="B145" s="29" t="s">
+      <c r="B145" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="38"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="38"/>
-      <c r="I145" s="39"/>
-      <c r="J145" s="38"/>
-      <c r="K145" s="39"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="41"/>
+      <c r="G145" s="42"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="41"/>
+      <c r="K145" s="42"/>
     </row>
     <row r="146" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="13">
         <v>6</v>
       </c>
-      <c r="B146" s="29" t="s">
+      <c r="B146" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="38"/>
-      <c r="G146" s="39"/>
-      <c r="H146" s="38"/>
-      <c r="I146" s="39"/>
-      <c r="J146" s="38"/>
-      <c r="K146" s="39"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="28"/>
+      <c r="F146" s="41"/>
+      <c r="G146" s="42"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="42"/>
+      <c r="J146" s="41"/>
+      <c r="K146" s="42"/>
     </row>
     <row r="147" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="13">
         <v>7</v>
       </c>
-      <c r="B147" s="29" t="s">
+      <c r="B147" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="38"/>
-      <c r="G147" s="39"/>
-      <c r="H147" s="38"/>
-      <c r="I147" s="39"/>
-      <c r="J147" s="38"/>
-      <c r="K147" s="39"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="41"/>
+      <c r="G147" s="42"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="42"/>
+      <c r="J147" s="41"/>
+      <c r="K147" s="42"/>
     </row>
     <row r="148" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="13">
         <v>8</v>
       </c>
-      <c r="B148" s="29" t="s">
+      <c r="B148" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C148" s="29"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="38"/>
-      <c r="G148" s="39"/>
-      <c r="H148" s="38"/>
-      <c r="I148" s="39"/>
-      <c r="J148" s="38"/>
-      <c r="K148" s="39"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="41"/>
+      <c r="G148" s="42"/>
+      <c r="H148" s="41"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="41"/>
+      <c r="K148" s="42"/>
     </row>
     <row r="149" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="13">
         <v>9</v>
       </c>
-      <c r="B149" s="29" t="s">
+      <c r="B149" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C149" s="29"/>
-      <c r="D149" s="29"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="38"/>
-      <c r="G149" s="39"/>
-      <c r="H149" s="38"/>
-      <c r="I149" s="39"/>
-      <c r="J149" s="38"/>
-      <c r="K149" s="39"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="41"/>
+      <c r="G149" s="42"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="42"/>
+      <c r="J149" s="41"/>
+      <c r="K149" s="42"/>
     </row>
     <row r="150" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="13">
         <v>10</v>
       </c>
-      <c r="B150" s="29" t="s">
+      <c r="B150" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="38"/>
-      <c r="G150" s="39"/>
-      <c r="H150" s="38"/>
-      <c r="I150" s="39"/>
-      <c r="J150" s="38"/>
-      <c r="K150" s="39"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="41"/>
+      <c r="G150" s="42"/>
+      <c r="H150" s="41"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="41"/>
+      <c r="K150" s="42"/>
     </row>
     <row r="151" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="13">
         <v>11</v>
       </c>
-      <c r="B151" s="29" t="s">
+      <c r="B151" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="38"/>
-      <c r="G151" s="39"/>
-      <c r="H151" s="38"/>
-      <c r="I151" s="39"/>
-      <c r="J151" s="38"/>
-      <c r="K151" s="39"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="41"/>
+      <c r="G151" s="42"/>
+      <c r="H151" s="41"/>
+      <c r="I151" s="42"/>
+      <c r="J151" s="41"/>
+      <c r="K151" s="42"/>
     </row>
     <row r="152" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="13">
         <v>12</v>
       </c>
-      <c r="B152" s="29" t="s">
+      <c r="B152" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="38"/>
-      <c r="G152" s="39"/>
-      <c r="H152" s="38"/>
-      <c r="I152" s="39"/>
-      <c r="J152" s="38"/>
-      <c r="K152" s="39"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="41"/>
+      <c r="G152" s="42"/>
+      <c r="H152" s="41"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="41"/>
+      <c r="K152" s="42"/>
     </row>
     <row r="153" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="13">
         <v>13</v>
       </c>
-      <c r="B153" s="29" t="s">
+      <c r="B153" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="38"/>
-      <c r="G153" s="39"/>
-      <c r="H153" s="38"/>
-      <c r="I153" s="39"/>
-      <c r="J153" s="38"/>
-      <c r="K153" s="39"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="41"/>
+      <c r="G153" s="42"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="41"/>
+      <c r="K153" s="42"/>
     </row>
     <row r="154" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="13">
         <v>14</v>
       </c>
-      <c r="B154" s="29" t="s">
+      <c r="B154" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="38"/>
-      <c r="G154" s="39"/>
-      <c r="H154" s="38"/>
-      <c r="I154" s="39"/>
-      <c r="J154" s="38"/>
-      <c r="K154" s="39"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="41"/>
+      <c r="G154" s="42"/>
+      <c r="H154" s="41"/>
+      <c r="I154" s="42"/>
+      <c r="J154" s="41"/>
+      <c r="K154" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="162">

--- a/Шаблон отчета.xlsx
+++ b/Шаблон отчета.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C46E807-3AD6-4ECD-A579-AC17D023AA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC294C64-5D93-4A4F-A628-22632E1385DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="ComparisonAnalysis" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="Свойства">'[1]Риск и неопределенности'!$O$13:$O$14</definedName>
     <definedName name="Скв">'[1]Риск и неопределенности'!$O$17:$O$26</definedName>
     <definedName name="СРР">'[1]Риск и неопределенности'!$O$2:$O$4</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="96">
   <si>
     <t>Вероятностная оценка запасов</t>
   </si>
@@ -1194,6 +1195,24 @@
   <si>
     <t>Коэфифициент изученности, д.е.</t>
   </si>
+  <si>
+    <t>Лицензионный участок/месторождение</t>
+  </si>
+  <si>
+    <t>Геологические запасы, млн. м3</t>
+  </si>
+  <si>
+    <t>Коэффициент изученности, д.е.</t>
+  </si>
+  <si>
+    <t>Коэффициент неопределенности, д.е.</t>
+  </si>
+  <si>
+    <t>Годовые отборы на период постоянной добычи, млн. м3</t>
+  </si>
+  <si>
+    <t>Накопленная добыча газа, млн. м3</t>
+  </si>
 </sst>
 </file>
 
@@ -1202,7 +1221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1411,6 +1430,19 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1420,7 +1452,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1489,12 +1521,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1541,8 +1644,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1552,7 +1663,7 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1564,8 +1675,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1573,13 +1687,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1597,14 +1753,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1615,37 +1768,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1658,24 +1789,79 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1689,146 +1875,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>478893</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Рисунок 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="15678150"/>
-          <a:ext cx="6008996" cy="1790700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>425822</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>143995</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>61965</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA463C45-8BE7-42E4-A7C4-2BB8EAB95331}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="425822" y="27452730"/>
-          <a:ext cx="6229124" cy="3441888"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>56031</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3363</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>191899</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF063F26-5C4A-433D-8EB9-0D9F4D7CBB90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="537884" y="11474824"/>
-          <a:ext cx="6499412" cy="4001899"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2326,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:M223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M163" sqref="M163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2345,85 +2391,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -2438,40 +2484,40 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="17"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="33" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="15" t="s">
         <v>20</v>
       </c>
@@ -2481,21 +2527,21 @@
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="36" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="33" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="15"/>
       <c r="L11" s="5"/>
     </row>
@@ -2503,21 +2549,21 @@
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="33" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="15"/>
       <c r="L12" s="5"/>
     </row>
@@ -2525,21 +2571,21 @@
       <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="36" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="33" t="s">
+      <c r="G13" s="53"/>
+      <c r="H13" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="15"/>
       <c r="L13" s="5"/>
       <c r="M13"/>
@@ -2548,21 +2594,21 @@
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36" t="s">
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="33" t="s">
+      <c r="G14" s="53"/>
+      <c r="H14" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="15"/>
       <c r="L14" s="5"/>
       <c r="M14"/>
@@ -2571,19 +2617,19 @@
       <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="36" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
       <c r="K15" s="15">
         <v>0.67</v>
       </c>
@@ -2594,19 +2640,19 @@
       <c r="A16" s="4">
         <v>6</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="36" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
       <c r="K16" s="15">
         <v>320.5</v>
       </c>
@@ -2617,19 +2663,19 @@
       <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="36" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
       <c r="K17" s="15">
         <v>32.299999999999997</v>
       </c>
@@ -2640,19 +2686,19 @@
       <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="36" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="15">
         <v>0.91</v>
       </c>
@@ -2663,19 +2709,19 @@
       <c r="A19" s="4">
         <v>9</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="36" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="15">
         <v>0.93</v>
       </c>
@@ -2688,12 +2734,12 @@
       <c r="M20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="1">
         <v>1000</v>
       </c>
@@ -2805,62 +2851,62 @@
       <c r="L30"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="str">
+      <c r="A31" s="61" t="str">
         <f>"Выводы: по сценариям Р90, Р50, Р10 получилось, что с вероятностью 90% начальные геологические запасы газа составят "&amp;C25&amp;" млрд м3, с вероятностью 50% - "&amp;C27&amp;" млрд м3,  с вероятностью 10% - "&amp;C29&amp;" млрд м3"</f>
         <v>Выводы: по сценариям Р90, Р50, Р10 получилось, что с вероятностью 90% начальные геологические запасы газа составят 6655,5 млрд м3, с вероятностью 50% - 8530,8 млрд м3,  с вероятностью 10% - 10406,1 млрд м3</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
       <c r="L31"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3023,1890 +3069,2098 @@
       <c r="L47"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L49"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L50"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L51"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L52"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L53"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="42"/>
       <c r="L54"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="43"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
       <c r="K55" s="45"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="43"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
       <c r="K56" s="45"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="43"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
       <c r="K57" s="45"/>
       <c r="L57"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="43"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
       <c r="K58" s="45"/>
       <c r="L58"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="43"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
       <c r="K59" s="45"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="43"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
       <c r="K60" s="45"/>
       <c r="L60"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="43"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
       <c r="K61" s="45"/>
       <c r="L61"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="43"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
       <c r="K62" s="45"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="43"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
       <c r="K63" s="45"/>
       <c r="L63"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="43"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
       <c r="K64" s="45"/>
       <c r="L64"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="43"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
       <c r="K65" s="45"/>
       <c r="L65"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="45"/>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="43"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="74"/>
       <c r="K66" s="45"/>
       <c r="L66"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="43"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="74"/>
       <c r="K67" s="45"/>
       <c r="L67"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="43"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="45"/>
       <c r="L68"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="43"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="74"/>
+      <c r="K69" s="45"/>
       <c r="L69"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="43"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="45"/>
       <c r="L70"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="43"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="45"/>
       <c r="L71"/>
     </row>
-    <row r="72" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="43"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="45"/>
       <c r="L72"/>
     </row>
-    <row r="73" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="43"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="45"/>
       <c r="L73"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="43"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
       <c r="K74" s="45"/>
       <c r="L74"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="43"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74"/>
       <c r="K75" s="45"/>
       <c r="L75"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="43"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="74"/>
       <c r="K76" s="45"/>
       <c r="L76"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="43"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74"/>
       <c r="K77" s="45"/>
       <c r="L77"/>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="46"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="48"/>
       <c r="L78"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="45"/>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="76"/>
       <c r="L79"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="45"/>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="77"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="78"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="78"/>
+      <c r="H80" s="78"/>
+      <c r="I80" s="78"/>
+      <c r="J80" s="78"/>
+      <c r="K80" s="79"/>
       <c r="L80"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
+      <c r="A81" s="80"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="81"/>
+      <c r="H81" s="81"/>
+      <c r="I81" s="81"/>
+      <c r="J81" s="81"/>
+      <c r="K81" s="82"/>
       <c r="L81"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="45"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="45"/>
-      <c r="K82" s="45"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="42"/>
       <c r="L82"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
+      <c r="J83" s="74"/>
+      <c r="K83" s="45"/>
       <c r="L83"/>
     </row>
-    <row r="84" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B84" s="44" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="43"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="45"/>
+      <c r="L84"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="43"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="74"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="74"/>
+      <c r="K85" s="45"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="43"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="74"/>
+      <c r="K86" s="45"/>
+      <c r="L86"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="43"/>
+      <c r="B87" s="74"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="74"/>
+      <c r="J87" s="74"/>
+      <c r="K87" s="45"/>
+      <c r="L87"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="43"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="74"/>
+      <c r="I88" s="74"/>
+      <c r="J88" s="74"/>
+      <c r="K88" s="45"/>
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="43"/>
+      <c r="B89" s="74"/>
+      <c r="C89" s="74"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="74"/>
+      <c r="I89" s="74"/>
+      <c r="J89" s="74"/>
+      <c r="K89" s="45"/>
+      <c r="L89"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="43"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="74"/>
+      <c r="K90" s="45"/>
+      <c r="L90"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="43"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="74"/>
+      <c r="H91" s="74"/>
+      <c r="I91" s="74"/>
+      <c r="J91" s="74"/>
+      <c r="K91" s="45"/>
+      <c r="L91"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="43"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="74"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="74"/>
+      <c r="H92" s="74"/>
+      <c r="I92" s="74"/>
+      <c r="J92" s="74"/>
+      <c r="K92" s="45"/>
+      <c r="L92"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="43"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="74"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="74"/>
+      <c r="G93" s="74"/>
+      <c r="H93" s="74"/>
+      <c r="I93" s="74"/>
+      <c r="J93" s="74"/>
+      <c r="K93" s="45"/>
+      <c r="L93"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="43"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="74"/>
+      <c r="H94" s="74"/>
+      <c r="I94" s="74"/>
+      <c r="J94" s="74"/>
+      <c r="K94" s="45"/>
+      <c r="L94"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="43"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="74"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="74"/>
+      <c r="H95" s="74"/>
+      <c r="I95" s="74"/>
+      <c r="J95" s="74"/>
+      <c r="K95" s="45"/>
+      <c r="L95"/>
+    </row>
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="43"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="74"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="74"/>
+      <c r="J96" s="74"/>
+      <c r="K96" s="45"/>
+      <c r="L96" s="11"/>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="43"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="74"/>
+      <c r="H97" s="74"/>
+      <c r="I97" s="74"/>
+      <c r="J97" s="74"/>
+      <c r="K97" s="45"/>
+      <c r="L97" s="11"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="43"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="74"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="74"/>
+      <c r="J98" s="74"/>
+      <c r="K98" s="45"/>
+    </row>
+    <row r="99" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="43"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="74"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="74"/>
+      <c r="H99" s="74"/>
+      <c r="I99" s="74"/>
+      <c r="J99" s="74"/>
+      <c r="K99" s="45"/>
+      <c r="L99" s="17"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="43"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="74"/>
+      <c r="H100" s="74"/>
+      <c r="I100" s="74"/>
+      <c r="J100" s="74"/>
+      <c r="K100" s="45"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="43"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="74"/>
+      <c r="H101" s="74"/>
+      <c r="I101" s="74"/>
+      <c r="J101" s="74"/>
+      <c r="K101" s="45"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="43"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
+      <c r="J102" s="74"/>
+      <c r="K102" s="45"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="43"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="74"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="74"/>
+      <c r="I103" s="74"/>
+      <c r="J103" s="74"/>
+      <c r="K103" s="45"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="43"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="74"/>
+      <c r="I104" s="74"/>
+      <c r="J104" s="74"/>
+      <c r="K104" s="45"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="46"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
+      <c r="J105" s="47"/>
+      <c r="K105" s="48"/>
+    </row>
+    <row r="106" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="44"/>
-      <c r="L84"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95"/>
-    </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
+      <c r="B106" s="56"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="56"/>
+      <c r="J106" s="56"/>
+      <c r="K106" s="56"/>
+    </row>
+    <row r="108" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="11"/>
-    </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="11"/>
-    </row>
-    <row r="99" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="49" t="s">
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="34"/>
+    </row>
+    <row r="109" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34"/>
+      <c r="K109" s="34"/>
+    </row>
+    <row r="110" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B99" s="49"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49"/>
-      <c r="L99" s="49"/>
-    </row>
-    <row r="101" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="27" t="s">
+      <c r="B111" s="49"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="49"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="49"/>
+      <c r="I111" s="49"/>
+      <c r="J111" s="49"/>
+      <c r="K111" s="49"/>
+    </row>
+    <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27" t="s">
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27" t="s">
+      <c r="F113" s="33"/>
+      <c r="G113" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27" t="s">
+      <c r="H113" s="33"/>
+      <c r="I113" s="33"/>
+      <c r="J113" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K101" s="27"/>
-    </row>
-    <row r="102" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="28" t="s">
+      <c r="K113" s="33"/>
+    </row>
+    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="26" t="s">
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F102" s="26"/>
-      <c r="G102" s="29" t="s">
+      <c r="F114" s="28"/>
+      <c r="G114" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J103" s="18"/>
-      <c r="K103" s="19"/>
-    </row>
-    <row r="104" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="27" t="s">
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="33"/>
+    </row>
+    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A116" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27" t="s">
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="33"/>
+      <c r="J116" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K104" s="27"/>
-    </row>
-    <row r="105" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
+      <c r="K116" s="33"/>
+    </row>
+    <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="39">
+      <c r="B117" s="62"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="62"/>
+      <c r="E117" s="62"/>
+      <c r="F117" s="62"/>
+      <c r="G117" s="62"/>
+      <c r="H117" s="62"/>
+      <c r="I117" s="62"/>
+      <c r="J117" s="35">
         <v>5</v>
       </c>
-      <c r="K105" s="40"/>
-    </row>
-    <row r="106" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="30" t="s">
+      <c r="K117" s="37"/>
+    </row>
+    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="41">
+      <c r="B118" s="62"/>
+      <c r="C118" s="62"/>
+      <c r="D118" s="62"/>
+      <c r="E118" s="62"/>
+      <c r="F118" s="62"/>
+      <c r="G118" s="62"/>
+      <c r="H118" s="62"/>
+      <c r="I118" s="62"/>
+      <c r="J118" s="57">
         <v>0.98</v>
       </c>
-      <c r="K106" s="42"/>
-    </row>
-    <row r="107" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="30" t="s">
+      <c r="K118" s="58"/>
+    </row>
+    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="30"/>
-      <c r="J107" s="41">
+      <c r="B119" s="62"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="62"/>
+      <c r="H119" s="62"/>
+      <c r="I119" s="62"/>
+      <c r="J119" s="57">
         <v>1.05</v>
       </c>
-      <c r="K107" s="42"/>
-    </row>
-    <row r="108" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A108" s="30" t="s">
+      <c r="K119" s="58"/>
+    </row>
+    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30"/>
-      <c r="J108" s="41">
+      <c r="B120" s="36"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="57">
         <v>1</v>
       </c>
-      <c r="K108" s="42"/>
-    </row>
-    <row r="109" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="30" t="s">
+      <c r="K120" s="58"/>
+    </row>
+    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="41">
+      <c r="B121" s="36"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="57">
         <v>6</v>
       </c>
-      <c r="K109" s="42"/>
-    </row>
-    <row r="110" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="30" t="s">
+      <c r="K121" s="58"/>
+    </row>
+    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
-      <c r="I110" s="30"/>
-      <c r="J110" s="43" t="s">
+      <c r="B122" s="36"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="K110" s="42"/>
-    </row>
-    <row r="111" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="30" t="s">
+      <c r="K122" s="60"/>
+    </row>
+    <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A123" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
-      <c r="I111" s="30"/>
-      <c r="J111" s="41">
+      <c r="B123" s="36"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="57">
         <v>2700</v>
       </c>
-      <c r="K111" s="42"/>
-    </row>
-    <row r="112" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="30" t="s">
+      <c r="K123" s="58"/>
+    </row>
+    <row r="124" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A124" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="30"/>
-      <c r="J112" s="41">
+      <c r="B124" s="36"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="57">
         <v>0.16800000000000001</v>
       </c>
-      <c r="K112" s="42"/>
-    </row>
-    <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="30" t="s">
+      <c r="K124" s="58"/>
+    </row>
+    <row r="125" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="41">
+      <c r="B125" s="36"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="57">
         <v>7.5</v>
       </c>
-      <c r="K113" s="42"/>
-    </row>
-    <row r="114" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="30" t="s">
+      <c r="K125" s="58"/>
+    </row>
+    <row r="126" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A126" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="41" t="s">
+      <c r="B126" s="36"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="K114" s="42"/>
-    </row>
-    <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="30" t="s">
+      <c r="K126" s="58"/>
+    </row>
+    <row r="127" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="30"/>
-      <c r="I115" s="30"/>
-      <c r="J115" s="41">
+      <c r="B127" s="36"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="57">
         <v>5</v>
       </c>
-      <c r="K115" s="42"/>
-    </row>
-    <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="31" t="s">
+      <c r="K127" s="58"/>
+    </row>
+    <row r="128" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A129" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B117" s="31"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
-      <c r="K117" s="31"/>
-    </row>
-    <row r="118" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A118" s="30" t="s">
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="38"/>
+      <c r="J129" s="38"/>
+      <c r="K129" s="38"/>
+    </row>
+    <row r="130" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A130" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="30"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="30"/>
-      <c r="I118" s="30"/>
-      <c r="J118" s="27">
+      <c r="B130" s="36"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="57">
         <v>9.5200000000000005E-4</v>
       </c>
-      <c r="K118" s="27"/>
-    </row>
-    <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A119" s="30" t="s">
+      <c r="K130" s="58"/>
+    </row>
+    <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="30"/>
-      <c r="I119" s="30"/>
-      <c r="J119" s="27">
+      <c r="B131" s="36"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="37"/>
+      <c r="J131" s="57">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="K119" s="27"/>
-    </row>
-    <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="30" t="s">
+      <c r="K131" s="58"/>
+    </row>
+    <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="30"/>
-      <c r="I120" s="30"/>
-      <c r="J120" s="27">
+      <c r="B132" s="36"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="37"/>
+      <c r="J132" s="57">
         <v>1.9E-2</v>
       </c>
-      <c r="K120" s="27"/>
-    </row>
-    <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A121" s="30" t="s">
+      <c r="K132" s="58"/>
+    </row>
+    <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="30"/>
-      <c r="I121" s="30"/>
-      <c r="J121" s="27">
+      <c r="B133" s="36"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="37"/>
+      <c r="J133" s="57">
         <v>2500</v>
       </c>
-      <c r="K121" s="27"/>
-    </row>
-    <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="30" t="s">
+      <c r="K133" s="58"/>
+    </row>
+    <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="30"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="30"/>
-      <c r="I122" s="30"/>
-      <c r="J122" s="27">
+      <c r="B134" s="36"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="37"/>
+      <c r="J134" s="57">
         <v>310</v>
       </c>
-      <c r="K122" s="27"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123"/>
-      <c r="J123"/>
-      <c r="K123"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
-      <c r="B124" s="47"/>
-      <c r="C124" s="47"/>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="47"/>
-      <c r="G124" s="47"/>
-      <c r="H124" s="47"/>
-      <c r="I124" s="47"/>
-      <c r="J124" s="47"/>
-      <c r="K124" s="47"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
-      <c r="B125" s="47"/>
-      <c r="C125" s="47"/>
-      <c r="D125" s="47"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="47"/>
-      <c r="H125" s="47"/>
-      <c r="I125" s="47"/>
-      <c r="J125" s="47"/>
-      <c r="K125" s="47"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
-      <c r="B126" s="47"/>
-      <c r="C126" s="47"/>
-      <c r="D126" s="47"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="47"/>
-      <c r="H126" s="47"/>
-      <c r="I126" s="47"/>
-      <c r="J126" s="47"/>
-      <c r="K126" s="47"/>
-    </row>
-    <row r="127" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="47"/>
-      <c r="C127" s="47"/>
-      <c r="D127" s="47"/>
-      <c r="E127" s="47"/>
-      <c r="F127" s="47"/>
-      <c r="G127" s="47"/>
-      <c r="H127" s="47"/>
-      <c r="I127" s="47"/>
-      <c r="J127" s="47"/>
-      <c r="K127" s="47"/>
-    </row>
-    <row r="128" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="47"/>
-      <c r="C128" s="47"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="47"/>
-      <c r="I128" s="47"/>
-      <c r="J128" s="47"/>
-      <c r="K128" s="47"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B129" s="47"/>
-      <c r="C129" s="47"/>
-      <c r="D129" s="47"/>
-      <c r="E129" s="47"/>
-      <c r="F129" s="47"/>
-      <c r="G129" s="47"/>
-      <c r="H129" s="47"/>
-      <c r="I129" s="47"/>
-      <c r="J129" s="47"/>
-      <c r="K129" s="47"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B130" s="47"/>
-      <c r="C130" s="47"/>
-      <c r="D130" s="47"/>
-      <c r="E130" s="47"/>
-      <c r="F130" s="47"/>
-      <c r="G130" s="47"/>
-      <c r="H130" s="47"/>
-      <c r="I130" s="47"/>
-      <c r="J130" s="47"/>
-      <c r="K130" s="47"/>
-    </row>
-    <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="47"/>
-      <c r="C131" s="47"/>
-      <c r="D131" s="47"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="47"/>
-      <c r="H131" s="47"/>
-      <c r="I131" s="47"/>
-      <c r="J131" s="47"/>
-      <c r="K131" s="47"/>
-    </row>
-    <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="47"/>
-      <c r="C132" s="47"/>
-      <c r="D132" s="47"/>
-      <c r="E132" s="47"/>
-      <c r="F132" s="47"/>
-      <c r="G132" s="47"/>
-      <c r="H132" s="47"/>
-      <c r="I132" s="47"/>
-      <c r="J132" s="47"/>
-      <c r="K132" s="47"/>
-    </row>
-    <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="47"/>
-      <c r="C133" s="47"/>
-      <c r="D133" s="47"/>
-      <c r="E133" s="47"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="47"/>
-      <c r="H133" s="47"/>
-      <c r="I133" s="47"/>
-      <c r="J133" s="47"/>
-      <c r="K133" s="47"/>
-    </row>
-    <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="47"/>
-      <c r="C134" s="47"/>
-      <c r="D134" s="47"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="47"/>
-      <c r="H134" s="47"/>
-      <c r="I134" s="47"/>
-      <c r="J134" s="47"/>
-      <c r="K134" s="47"/>
-    </row>
-    <row r="135" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C135" s="46"/>
-      <c r="D135" s="46"/>
-      <c r="E135" s="46"/>
-      <c r="F135" s="46"/>
-      <c r="G135" s="46"/>
-      <c r="H135" s="46"/>
-      <c r="I135" s="46"/>
-      <c r="J135" s="46"/>
-      <c r="K135" s="46"/>
-    </row>
-    <row r="136" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
-      <c r="K136" s="14"/>
-    </row>
+      <c r="K134" s="58"/>
+    </row>
+    <row r="135" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="137" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23"/>
-      <c r="H137" s="23"/>
-      <c r="I137" s="23"/>
-      <c r="J137" s="23"/>
-      <c r="K137" s="23"/>
       <c r="L137" s="11"/>
     </row>
     <row r="138" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="23"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="23"/>
-      <c r="G138" s="23"/>
-      <c r="H138" s="23"/>
-      <c r="I138" s="23"/>
-      <c r="J138" s="23"/>
-      <c r="K138" s="23"/>
       <c r="L138" s="11"/>
     </row>
-    <row r="139" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B139" s="52"/>
-      <c r="C139" s="52"/>
-      <c r="D139" s="52"/>
-      <c r="E139" s="52"/>
-      <c r="F139" s="52"/>
-      <c r="G139" s="52"/>
-      <c r="H139" s="53">
-        <v>1</v>
-      </c>
-      <c r="J139" s="54"/>
-      <c r="K139" s="54"/>
-    </row>
-    <row r="140" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B140" s="52"/>
-      <c r="C140" s="52"/>
-      <c r="D140" s="52"/>
-      <c r="E140" s="52"/>
-      <c r="F140" s="52"/>
-      <c r="G140" s="52"/>
-      <c r="H140" s="55">
-        <v>2000</v>
-      </c>
-      <c r="J140" s="54"/>
-      <c r="K140" s="54"/>
-    </row>
+    <row r="139" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="141" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B142" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C142" s="56"/>
-      <c r="D142" s="56"/>
-      <c r="E142" s="56"/>
-      <c r="F142" s="56"/>
-      <c r="G142" s="56"/>
-      <c r="H142" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="I142" s="56"/>
-      <c r="J142" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="K142" s="53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="13">
-        <v>1</v>
-      </c>
-      <c r="B143" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C143" s="56"/>
-      <c r="D143" s="56"/>
-      <c r="E143" s="56"/>
-      <c r="F143" s="56"/>
-      <c r="G143" s="56"/>
-      <c r="H143" s="56"/>
-      <c r="I143" s="56"/>
-      <c r="J143" s="53"/>
-      <c r="K143" s="53"/>
-    </row>
-    <row r="144" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="13">
-        <v>2</v>
-      </c>
-      <c r="B144" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C144" s="57"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="57"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="57"/>
-      <c r="H144" s="56"/>
-      <c r="I144" s="56"/>
-      <c r="J144" s="53"/>
-      <c r="K144" s="53"/>
-    </row>
-    <row r="145" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="13">
-        <v>3</v>
-      </c>
-      <c r="B145" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C145" s="56"/>
-      <c r="D145" s="56"/>
-      <c r="E145" s="56"/>
-      <c r="F145" s="56"/>
-      <c r="G145" s="56"/>
-      <c r="H145" s="56"/>
-      <c r="I145" s="56"/>
-      <c r="J145" s="53"/>
-      <c r="K145" s="53"/>
-    </row>
-    <row r="146" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="13">
-        <v>4</v>
-      </c>
-      <c r="B146" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C146" s="56"/>
-      <c r="D146" s="56"/>
-      <c r="E146" s="56"/>
-      <c r="F146" s="56"/>
-      <c r="G146" s="56"/>
-      <c r="H146" s="56"/>
-      <c r="I146" s="56"/>
-      <c r="J146" s="53"/>
-      <c r="K146" s="53"/>
-    </row>
-    <row r="147" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="13">
-        <v>5</v>
-      </c>
-      <c r="B147" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C147" s="57"/>
-      <c r="D147" s="57"/>
-      <c r="E147" s="57"/>
-      <c r="F147" s="57"/>
-      <c r="G147" s="57"/>
-      <c r="H147" s="56"/>
-      <c r="I147" s="56"/>
-      <c r="J147" s="53"/>
-      <c r="K147" s="53"/>
-    </row>
-    <row r="148" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B148" s="56"/>
-      <c r="C148" s="56"/>
-      <c r="D148" s="56"/>
-      <c r="E148" s="56"/>
-      <c r="F148" s="56"/>
-      <c r="G148" s="56"/>
-      <c r="H148" s="56"/>
-      <c r="I148" s="56"/>
-      <c r="J148" s="53"/>
-      <c r="K148" s="53">
-        <f>SUM(K143:K147)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="54"/>
-      <c r="B149" s="54"/>
-      <c r="C149" s="54"/>
-      <c r="D149" s="54"/>
-      <c r="E149" s="54"/>
-      <c r="F149" s="54"/>
-      <c r="G149" s="54"/>
-      <c r="H149" s="54"/>
-      <c r="I149" s="16"/>
-      <c r="J149" s="14"/>
-      <c r="K149" s="14"/>
-    </row>
-    <row r="150" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B150" s="58"/>
-      <c r="C150" s="58"/>
-      <c r="D150" s="58"/>
-      <c r="E150" s="58"/>
-      <c r="F150" s="59">
-        <f>SUMPRODUCT(J143:J147,K143:K147)</f>
-        <v>0</v>
-      </c>
-      <c r="G150" s="54"/>
-      <c r="H150" s="54"/>
-      <c r="J150" s="14"/>
-      <c r="K150" s="14"/>
-    </row>
+    <row r="142" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="151" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="152" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="153" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="154" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="40"/>
+      <c r="B157" s="41"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="41"/>
+      <c r="F157" s="41"/>
+      <c r="G157" s="41"/>
+      <c r="H157" s="41"/>
+      <c r="I157" s="41"/>
+      <c r="J157" s="41"/>
+      <c r="K157" s="42"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="43"/>
+      <c r="B158" s="74"/>
+      <c r="C158" s="74"/>
+      <c r="D158" s="74"/>
+      <c r="E158" s="74"/>
+      <c r="F158" s="74"/>
+      <c r="G158" s="74"/>
+      <c r="H158" s="74"/>
+      <c r="I158" s="74"/>
+      <c r="J158" s="74"/>
+      <c r="K158" s="45"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="43"/>
+      <c r="B159" s="74"/>
+      <c r="C159" s="74"/>
+      <c r="D159" s="74"/>
+      <c r="E159" s="74"/>
+      <c r="F159" s="74"/>
+      <c r="G159" s="74"/>
+      <c r="H159" s="74"/>
+      <c r="I159" s="74"/>
+      <c r="J159" s="74"/>
+      <c r="K159" s="45"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="43"/>
+      <c r="B160" s="74"/>
+      <c r="C160" s="74"/>
+      <c r="D160" s="74"/>
+      <c r="E160" s="74"/>
+      <c r="F160" s="74"/>
+      <c r="G160" s="74"/>
+      <c r="H160" s="74"/>
+      <c r="I160" s="74"/>
+      <c r="J160" s="74"/>
+      <c r="K160" s="45"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="43"/>
+      <c r="B161" s="74"/>
+      <c r="C161" s="74"/>
+      <c r="D161" s="74"/>
+      <c r="E161" s="74"/>
+      <c r="F161" s="74"/>
+      <c r="G161" s="74"/>
+      <c r="H161" s="74"/>
+      <c r="I161" s="74"/>
+      <c r="J161" s="74"/>
+      <c r="K161" s="45"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="43"/>
+      <c r="B162" s="74"/>
+      <c r="C162" s="74"/>
+      <c r="D162" s="74"/>
+      <c r="E162" s="74"/>
+      <c r="F162" s="74"/>
+      <c r="G162" s="74"/>
+      <c r="H162" s="74"/>
+      <c r="I162" s="74"/>
+      <c r="J162" s="74"/>
+      <c r="K162" s="45"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="43"/>
+      <c r="B163" s="74"/>
+      <c r="C163" s="74"/>
+      <c r="D163" s="74"/>
+      <c r="E163" s="74"/>
+      <c r="F163" s="74"/>
+      <c r="G163" s="74"/>
+      <c r="H163" s="74"/>
+      <c r="I163" s="74"/>
+      <c r="J163" s="74"/>
+      <c r="K163" s="45"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="43"/>
+      <c r="B164" s="74"/>
+      <c r="C164" s="74"/>
+      <c r="D164" s="74"/>
+      <c r="E164" s="74"/>
+      <c r="F164" s="74"/>
+      <c r="G164" s="74"/>
+      <c r="H164" s="74"/>
+      <c r="I164" s="74"/>
+      <c r="J164" s="74"/>
+      <c r="K164" s="45"/>
+    </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="23" t="s">
+      <c r="A165" s="43"/>
+      <c r="B165" s="74"/>
+      <c r="C165" s="74"/>
+      <c r="D165" s="74"/>
+      <c r="E165" s="74"/>
+      <c r="F165" s="74"/>
+      <c r="G165" s="74"/>
+      <c r="H165" s="74"/>
+      <c r="I165" s="74"/>
+      <c r="J165" s="74"/>
+      <c r="K165" s="45"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="43"/>
+      <c r="B166" s="74"/>
+      <c r="C166" s="74"/>
+      <c r="D166" s="74"/>
+      <c r="E166" s="74"/>
+      <c r="F166" s="74"/>
+      <c r="G166" s="74"/>
+      <c r="H166" s="74"/>
+      <c r="I166" s="74"/>
+      <c r="J166" s="74"/>
+      <c r="K166" s="45"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="43"/>
+      <c r="B167" s="74"/>
+      <c r="C167" s="74"/>
+      <c r="D167" s="74"/>
+      <c r="E167" s="74"/>
+      <c r="F167" s="74"/>
+      <c r="G167" s="74"/>
+      <c r="H167" s="74"/>
+      <c r="I167" s="74"/>
+      <c r="J167" s="74"/>
+      <c r="K167" s="45"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="43"/>
+      <c r="B168" s="74"/>
+      <c r="C168" s="74"/>
+      <c r="D168" s="74"/>
+      <c r="E168" s="74"/>
+      <c r="F168" s="74"/>
+      <c r="G168" s="74"/>
+      <c r="H168" s="74"/>
+      <c r="I168" s="74"/>
+      <c r="J168" s="74"/>
+      <c r="K168" s="45"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="43"/>
+      <c r="B169" s="74"/>
+      <c r="C169" s="74"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="74"/>
+      <c r="F169" s="74"/>
+      <c r="G169" s="74"/>
+      <c r="H169" s="74"/>
+      <c r="I169" s="74"/>
+      <c r="J169" s="74"/>
+      <c r="K169" s="45"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="43"/>
+      <c r="B170" s="74"/>
+      <c r="C170" s="74"/>
+      <c r="D170" s="74"/>
+      <c r="E170" s="74"/>
+      <c r="F170" s="74"/>
+      <c r="G170" s="74"/>
+      <c r="H170" s="74"/>
+      <c r="I170" s="74"/>
+      <c r="J170" s="74"/>
+      <c r="K170" s="45"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="43"/>
+      <c r="B171" s="74"/>
+      <c r="C171" s="74"/>
+      <c r="D171" s="74"/>
+      <c r="E171" s="74"/>
+      <c r="F171" s="74"/>
+      <c r="G171" s="74"/>
+      <c r="H171" s="74"/>
+      <c r="I171" s="74"/>
+      <c r="J171" s="74"/>
+      <c r="K171" s="45"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="43"/>
+      <c r="B172" s="74"/>
+      <c r="C172" s="74"/>
+      <c r="D172" s="74"/>
+      <c r="E172" s="74"/>
+      <c r="F172" s="74"/>
+      <c r="G172" s="74"/>
+      <c r="H172" s="74"/>
+      <c r="I172" s="74"/>
+      <c r="J172" s="74"/>
+      <c r="K172" s="45"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="43"/>
+      <c r="B173" s="74"/>
+      <c r="C173" s="74"/>
+      <c r="D173" s="74"/>
+      <c r="E173" s="74"/>
+      <c r="F173" s="74"/>
+      <c r="G173" s="74"/>
+      <c r="H173" s="74"/>
+      <c r="I173" s="74"/>
+      <c r="J173" s="74"/>
+      <c r="K173" s="45"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="43"/>
+      <c r="B174" s="74"/>
+      <c r="C174" s="74"/>
+      <c r="D174" s="74"/>
+      <c r="E174" s="74"/>
+      <c r="F174" s="74"/>
+      <c r="G174" s="74"/>
+      <c r="H174" s="74"/>
+      <c r="I174" s="74"/>
+      <c r="J174" s="74"/>
+      <c r="K174" s="45"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="43"/>
+      <c r="B175" s="74"/>
+      <c r="C175" s="74"/>
+      <c r="D175" s="74"/>
+      <c r="E175" s="74"/>
+      <c r="F175" s="74"/>
+      <c r="G175" s="74"/>
+      <c r="H175" s="74"/>
+      <c r="I175" s="74"/>
+      <c r="J175" s="74"/>
+      <c r="K175" s="45"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="43"/>
+      <c r="B176" s="74"/>
+      <c r="C176" s="74"/>
+      <c r="D176" s="74"/>
+      <c r="E176" s="74"/>
+      <c r="F176" s="74"/>
+      <c r="G176" s="74"/>
+      <c r="H176" s="74"/>
+      <c r="I176" s="74"/>
+      <c r="J176" s="74"/>
+      <c r="K176" s="45"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="43"/>
+      <c r="B177" s="74"/>
+      <c r="C177" s="74"/>
+      <c r="D177" s="74"/>
+      <c r="E177" s="74"/>
+      <c r="F177" s="74"/>
+      <c r="G177" s="74"/>
+      <c r="H177" s="74"/>
+      <c r="I177" s="74"/>
+      <c r="J177" s="74"/>
+      <c r="K177" s="45"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="43"/>
+      <c r="B178" s="74"/>
+      <c r="C178" s="74"/>
+      <c r="D178" s="74"/>
+      <c r="E178" s="74"/>
+      <c r="F178" s="74"/>
+      <c r="G178" s="74"/>
+      <c r="H178" s="74"/>
+      <c r="I178" s="74"/>
+      <c r="J178" s="74"/>
+      <c r="K178" s="45"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="43"/>
+      <c r="B179" s="74"/>
+      <c r="C179" s="74"/>
+      <c r="D179" s="74"/>
+      <c r="E179" s="74"/>
+      <c r="F179" s="74"/>
+      <c r="G179" s="74"/>
+      <c r="H179" s="74"/>
+      <c r="I179" s="74"/>
+      <c r="J179" s="74"/>
+      <c r="K179" s="45"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="43"/>
+      <c r="B180" s="74"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="74"/>
+      <c r="E180" s="74"/>
+      <c r="F180" s="74"/>
+      <c r="G180" s="74"/>
+      <c r="H180" s="74"/>
+      <c r="I180" s="74"/>
+      <c r="J180" s="74"/>
+      <c r="K180" s="45"/>
+    </row>
+    <row r="181" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="46"/>
+      <c r="B181" s="47"/>
+      <c r="C181" s="47"/>
+      <c r="D181" s="47"/>
+      <c r="E181" s="47"/>
+      <c r="F181" s="47"/>
+      <c r="G181" s="47"/>
+      <c r="H181" s="47"/>
+      <c r="I181" s="47"/>
+      <c r="J181" s="47"/>
+      <c r="K181" s="48"/>
+    </row>
+    <row r="182" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A182" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B182" s="39"/>
+      <c r="C182" s="39"/>
+      <c r="D182" s="39"/>
+      <c r="E182" s="39"/>
+      <c r="F182" s="39"/>
+      <c r="G182" s="39"/>
+      <c r="H182" s="39"/>
+      <c r="I182" s="39"/>
+      <c r="J182" s="39"/>
+      <c r="K182" s="39"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B184" s="34"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="34"/>
+      <c r="E184" s="34"/>
+      <c r="F184" s="34"/>
+      <c r="G184" s="34"/>
+      <c r="H184" s="34"/>
+      <c r="I184" s="34"/>
+      <c r="J184" s="34"/>
+      <c r="K184" s="34"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="34"/>
+      <c r="B185" s="34"/>
+      <c r="C185" s="34"/>
+      <c r="D185" s="34"/>
+      <c r="E185" s="34"/>
+      <c r="F185" s="34"/>
+      <c r="G185" s="34"/>
+      <c r="H185" s="34"/>
+      <c r="I185" s="34"/>
+      <c r="J185" s="34"/>
+      <c r="K185" s="34"/>
+    </row>
+    <row r="186" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A186" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B186" s="63"/>
+      <c r="C186" s="63"/>
+      <c r="D186" s="63"/>
+      <c r="E186" s="63"/>
+      <c r="F186" s="63"/>
+      <c r="G186" s="63"/>
+      <c r="H186" s="19">
+        <v>1</v>
+      </c>
+      <c r="J186" s="20"/>
+      <c r="K186" s="20"/>
+    </row>
+    <row r="187" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A187" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B187" s="63"/>
+      <c r="C187" s="63"/>
+      <c r="D187" s="63"/>
+      <c r="E187" s="63"/>
+      <c r="F187" s="63"/>
+      <c r="G187" s="63"/>
+      <c r="H187" s="18">
+        <v>2000</v>
+      </c>
+      <c r="J187" s="20"/>
+      <c r="K187" s="20"/>
+    </row>
+    <row r="189" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C189" s="64"/>
+      <c r="D189" s="64"/>
+      <c r="E189" s="64"/>
+      <c r="F189" s="64"/>
+      <c r="G189" s="64"/>
+      <c r="H189" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="I189" s="64"/>
+      <c r="J189" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K189" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="13">
+        <v>1</v>
+      </c>
+      <c r="B190" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C190" s="64"/>
+      <c r="D190" s="64"/>
+      <c r="E190" s="64"/>
+      <c r="F190" s="64"/>
+      <c r="G190" s="64"/>
+      <c r="H190" s="64"/>
+      <c r="I190" s="64"/>
+      <c r="J190" s="19"/>
+      <c r="K190" s="19"/>
+    </row>
+    <row r="191" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="13">
+        <v>2</v>
+      </c>
+      <c r="B191" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C191" s="65"/>
+      <c r="D191" s="65"/>
+      <c r="E191" s="65"/>
+      <c r="F191" s="65"/>
+      <c r="G191" s="65"/>
+      <c r="H191" s="64"/>
+      <c r="I191" s="64"/>
+      <c r="J191" s="19"/>
+      <c r="K191" s="19"/>
+    </row>
+    <row r="192" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="13">
+        <v>3</v>
+      </c>
+      <c r="B192" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C192" s="64"/>
+      <c r="D192" s="64"/>
+      <c r="E192" s="64"/>
+      <c r="F192" s="64"/>
+      <c r="G192" s="64"/>
+      <c r="H192" s="64"/>
+      <c r="I192" s="64"/>
+      <c r="J192" s="19"/>
+      <c r="K192" s="19"/>
+    </row>
+    <row r="193" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="13">
+        <v>4</v>
+      </c>
+      <c r="B193" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C193" s="64"/>
+      <c r="D193" s="64"/>
+      <c r="E193" s="64"/>
+      <c r="F193" s="64"/>
+      <c r="G193" s="64"/>
+      <c r="H193" s="64"/>
+      <c r="I193" s="64"/>
+      <c r="J193" s="19"/>
+      <c r="K193" s="19"/>
+    </row>
+    <row r="194" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="13">
+        <v>5</v>
+      </c>
+      <c r="B194" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C194" s="65"/>
+      <c r="D194" s="65"/>
+      <c r="E194" s="65"/>
+      <c r="F194" s="65"/>
+      <c r="G194" s="65"/>
+      <c r="H194" s="64"/>
+      <c r="I194" s="64"/>
+      <c r="J194" s="19"/>
+      <c r="K194" s="19"/>
+    </row>
+    <row r="195" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B195" s="64"/>
+      <c r="C195" s="64"/>
+      <c r="D195" s="64"/>
+      <c r="E195" s="64"/>
+      <c r="F195" s="64"/>
+      <c r="G195" s="64"/>
+      <c r="H195" s="64"/>
+      <c r="I195" s="64"/>
+      <c r="J195" s="19"/>
+      <c r="K195" s="19">
+        <f>SUM(K190:K194)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A196" s="20"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="20"/>
+      <c r="I196" s="16"/>
+      <c r="J196" s="14"/>
+      <c r="K196" s="14"/>
+    </row>
+    <row r="197" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A197" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B197" s="66"/>
+      <c r="C197" s="66"/>
+      <c r="D197" s="66"/>
+      <c r="E197" s="66"/>
+      <c r="F197" s="21">
+        <f>SUMPRODUCT(J190:J194,K190:K194)</f>
+        <v>0</v>
+      </c>
+      <c r="G197" s="20"/>
+      <c r="H197" s="20"/>
+      <c r="J197" s="14"/>
+      <c r="K197" s="14"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B165" s="23"/>
-      <c r="C165" s="23"/>
-      <c r="D165" s="23"/>
-      <c r="E165" s="23"/>
-      <c r="F165" s="23"/>
-      <c r="G165" s="23"/>
-      <c r="H165" s="23"/>
-      <c r="I165" s="23"/>
-      <c r="J165" s="23"/>
-      <c r="K165" s="23"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="23"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="23"/>
-      <c r="D166" s="23"/>
-      <c r="E166" s="23"/>
-      <c r="F166" s="23"/>
-      <c r="G166" s="23"/>
-      <c r="H166" s="23"/>
-      <c r="I166" s="23"/>
-      <c r="J166" s="23"/>
-      <c r="K166" s="23"/>
-    </row>
-    <row r="168" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="12" t="s">
+      <c r="B206" s="34"/>
+      <c r="C206" s="34"/>
+      <c r="D206" s="34"/>
+      <c r="E206" s="34"/>
+      <c r="F206" s="34"/>
+      <c r="G206" s="34"/>
+      <c r="H206" s="34"/>
+      <c r="I206" s="34"/>
+      <c r="J206" s="34"/>
+      <c r="K206" s="34"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="34"/>
+      <c r="B207" s="34"/>
+      <c r="C207" s="34"/>
+      <c r="D207" s="34"/>
+      <c r="E207" s="34"/>
+      <c r="F207" s="34"/>
+      <c r="G207" s="34"/>
+      <c r="H207" s="34"/>
+      <c r="I207" s="34"/>
+      <c r="J207" s="34"/>
+      <c r="K207" s="34"/>
+    </row>
+    <row r="209" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="26" t="s">
+      <c r="B209" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
-      <c r="F168" s="26" t="s">
+      <c r="C209" s="28"/>
+      <c r="D209" s="28"/>
+      <c r="E209" s="28"/>
+      <c r="F209" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G168" s="26"/>
-      <c r="H168" s="26" t="s">
+      <c r="G209" s="28"/>
+      <c r="H209" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I168" s="26"/>
-      <c r="J168" s="26" t="s">
+      <c r="I209" s="28"/>
+      <c r="J209" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K168" s="26"/>
-    </row>
-    <row r="169" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="13">
+      <c r="K209" s="28"/>
+    </row>
+    <row r="210" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="13">
         <v>1</v>
       </c>
-      <c r="B169" s="28" t="s">
+      <c r="B210" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="20">
-        <v>6655.5</v>
-      </c>
-      <c r="G169" s="21"/>
-      <c r="H169" s="20">
-        <v>8530.7999999999993</v>
-      </c>
-      <c r="I169" s="21"/>
-      <c r="J169" s="20">
-        <v>10406.1</v>
-      </c>
-      <c r="K169" s="21"/>
-    </row>
-    <row r="170" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="13">
+      <c r="C210" s="31"/>
+      <c r="D210" s="31"/>
+      <c r="E210" s="31"/>
+      <c r="F210" s="22"/>
+      <c r="G210" s="23"/>
+      <c r="H210" s="22"/>
+      <c r="I210" s="23"/>
+      <c r="J210" s="22"/>
+      <c r="K210" s="23"/>
+    </row>
+    <row r="211" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="13">
         <v>2</v>
       </c>
-      <c r="B170" s="28" t="s">
+      <c r="B211" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
-      <c r="E170" s="28"/>
-      <c r="F170" s="24">
-        <v>3711</v>
-      </c>
-      <c r="G170" s="25"/>
-      <c r="H170" s="24">
-        <v>38554</v>
-      </c>
-      <c r="I170" s="25"/>
-      <c r="J170" s="24">
-        <v>39997</v>
-      </c>
-      <c r="K170" s="25"/>
-    </row>
-    <row r="171" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="13">
+      <c r="C211" s="31"/>
+      <c r="D211" s="31"/>
+      <c r="E211" s="31"/>
+      <c r="F211" s="26"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="26"/>
+      <c r="I211" s="27"/>
+      <c r="J211" s="26"/>
+      <c r="K211" s="27"/>
+    </row>
+    <row r="212" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="13">
         <v>3</v>
       </c>
-      <c r="B171" s="28" t="s">
+      <c r="B212" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
-      <c r="E171" s="28"/>
-      <c r="F171" s="20">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="G171" s="21"/>
-      <c r="H171" s="20">
-        <v>11.09</v>
-      </c>
-      <c r="I171" s="21"/>
-      <c r="J171" s="20">
-        <v>12.22</v>
-      </c>
-      <c r="K171" s="21"/>
-    </row>
-    <row r="172" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="13">
+      <c r="C212" s="31"/>
+      <c r="D212" s="31"/>
+      <c r="E212" s="31"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="23"/>
+      <c r="H212" s="22"/>
+      <c r="I212" s="23"/>
+      <c r="J212" s="22"/>
+      <c r="K212" s="23"/>
+    </row>
+    <row r="213" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="13">
         <v>4</v>
       </c>
-      <c r="B172" s="28" t="s">
+      <c r="B213" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="28"/>
-      <c r="F172" s="20">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="G172" s="21"/>
-      <c r="H172" s="20">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="I172" s="21"/>
-      <c r="J172" s="20">
-        <v>0.108</v>
-      </c>
-      <c r="K172" s="21"/>
-    </row>
-    <row r="173" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="13">
+      <c r="C213" s="31"/>
+      <c r="D213" s="31"/>
+      <c r="E213" s="31"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="23"/>
+      <c r="H213" s="22"/>
+      <c r="I213" s="23"/>
+      <c r="J213" s="22"/>
+      <c r="K213" s="23"/>
+    </row>
+    <row r="214" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="13">
         <v>5</v>
       </c>
-      <c r="B173" s="28" t="s">
+      <c r="B214" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="60">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="G173" s="61"/>
-      <c r="H173" s="60">
-        <v>0.69</v>
-      </c>
-      <c r="I173" s="61"/>
-      <c r="J173" s="60">
-        <v>0.69</v>
-      </c>
-      <c r="K173" s="61"/>
-    </row>
-    <row r="174" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="13">
+      <c r="C214" s="31"/>
+      <c r="D214" s="31"/>
+      <c r="E214" s="31"/>
+      <c r="F214" s="29"/>
+      <c r="G214" s="30"/>
+      <c r="H214" s="29"/>
+      <c r="I214" s="30"/>
+      <c r="J214" s="29"/>
+      <c r="K214" s="30"/>
+    </row>
+    <row r="215" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="13">
         <v>6</v>
       </c>
-      <c r="B174" s="28" t="s">
+      <c r="B215" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
-      <c r="E174" s="28"/>
-      <c r="F174" s="60">
-        <v>320.5</v>
-      </c>
-      <c r="G174" s="61"/>
-      <c r="H174" s="60">
-        <v>320.5</v>
-      </c>
-      <c r="I174" s="61"/>
-      <c r="J174" s="60">
-        <v>320.5</v>
-      </c>
-      <c r="K174" s="61"/>
-    </row>
-    <row r="175" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="13">
+      <c r="C215" s="31"/>
+      <c r="D215" s="31"/>
+      <c r="E215" s="31"/>
+      <c r="F215" s="29"/>
+      <c r="G215" s="30"/>
+      <c r="H215" s="29"/>
+      <c r="I215" s="30"/>
+      <c r="J215" s="29"/>
+      <c r="K215" s="30"/>
+    </row>
+    <row r="216" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="13">
         <v>7</v>
       </c>
-      <c r="B175" s="28" t="s">
+      <c r="B216" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C175" s="28"/>
-      <c r="D175" s="28"/>
-      <c r="E175" s="28"/>
-      <c r="F175" s="62">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="G175" s="62"/>
-      <c r="H175" s="62">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="I175" s="62"/>
-      <c r="J175" s="62">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="K175" s="62"/>
-    </row>
-    <row r="176" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="13">
+      <c r="C216" s="31"/>
+      <c r="D216" s="31"/>
+      <c r="E216" s="31"/>
+      <c r="F216" s="25"/>
+      <c r="G216" s="25"/>
+      <c r="H216" s="25"/>
+      <c r="I216" s="25"/>
+      <c r="J216" s="25"/>
+      <c r="K216" s="25"/>
+    </row>
+    <row r="217" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="13">
         <v>8</v>
       </c>
-      <c r="B176" s="28" t="s">
+      <c r="B217" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C176" s="28"/>
-      <c r="D176" s="28"/>
-      <c r="E176" s="28"/>
-      <c r="F176" s="62">
-        <v>0.91</v>
-      </c>
-      <c r="G176" s="62"/>
-      <c r="H176" s="62">
-        <v>0.91</v>
-      </c>
-      <c r="I176" s="62"/>
-      <c r="J176" s="62">
-        <v>0.91</v>
-      </c>
-      <c r="K176" s="62"/>
-    </row>
-    <row r="177" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="13">
+      <c r="C217" s="31"/>
+      <c r="D217" s="31"/>
+      <c r="E217" s="31"/>
+      <c r="F217" s="25"/>
+      <c r="G217" s="25"/>
+      <c r="H217" s="25"/>
+      <c r="I217" s="25"/>
+      <c r="J217" s="25"/>
+      <c r="K217" s="25"/>
+    </row>
+    <row r="218" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="13">
         <v>9</v>
       </c>
-      <c r="B177" s="28" t="s">
+      <c r="B218" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="62">
-        <v>0.93</v>
-      </c>
-      <c r="G177" s="62"/>
-      <c r="H177" s="62">
-        <v>0.93</v>
-      </c>
-      <c r="I177" s="62"/>
-      <c r="J177" s="62">
-        <v>0.93</v>
-      </c>
-      <c r="K177" s="62"/>
-    </row>
-    <row r="178" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="13">
+      <c r="C218" s="31"/>
+      <c r="D218" s="31"/>
+      <c r="E218" s="31"/>
+      <c r="F218" s="25"/>
+      <c r="G218" s="25"/>
+      <c r="H218" s="25"/>
+      <c r="I218" s="25"/>
+      <c r="J218" s="25"/>
+      <c r="K218" s="25"/>
+    </row>
+    <row r="219" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="13">
         <v>10</v>
       </c>
-      <c r="B178" s="28" t="s">
+      <c r="B219" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="22">
-        <v>332</v>
-      </c>
-      <c r="G178" s="22"/>
-      <c r="H178" s="22">
-        <v>426.5</v>
-      </c>
-      <c r="I178" s="22"/>
-      <c r="J178" s="22">
-        <v>520.29999999999995</v>
-      </c>
-      <c r="K178" s="22"/>
-    </row>
-    <row r="179" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="13">
+      <c r="C219" s="31"/>
+      <c r="D219" s="31"/>
+      <c r="E219" s="31"/>
+      <c r="F219" s="24"/>
+      <c r="G219" s="24"/>
+      <c r="H219" s="24"/>
+      <c r="I219" s="24"/>
+      <c r="J219" s="24"/>
+      <c r="K219" s="24"/>
+    </row>
+    <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="13">
         <v>11</v>
       </c>
-      <c r="B179" s="28" t="s">
+      <c r="B220" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="22">
-        <v>5390.5</v>
-      </c>
-      <c r="G179" s="22"/>
-      <c r="H179" s="22">
-        <v>6739.3</v>
-      </c>
-      <c r="I179" s="22"/>
-      <c r="J179" s="22">
-        <v>8012.6</v>
-      </c>
-      <c r="K179" s="22"/>
-    </row>
-    <row r="180" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="13">
+      <c r="C220" s="31"/>
+      <c r="D220" s="31"/>
+      <c r="E220" s="31"/>
+      <c r="F220" s="24"/>
+      <c r="G220" s="24"/>
+      <c r="H220" s="24"/>
+      <c r="I220" s="24"/>
+      <c r="J220" s="24"/>
+      <c r="K220" s="24"/>
+    </row>
+    <row r="221" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="13">
         <v>12</v>
       </c>
-      <c r="B180" s="28" t="s">
+      <c r="B221" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
-      <c r="E180" s="28"/>
-      <c r="F180" s="20">
-        <v>81</v>
-      </c>
-      <c r="G180" s="21"/>
-      <c r="H180" s="20">
-        <v>79</v>
-      </c>
-      <c r="I180" s="21"/>
-      <c r="J180" s="20">
-        <v>77</v>
-      </c>
-      <c r="K180" s="21"/>
-    </row>
-    <row r="181" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="13">
+      <c r="C221" s="31"/>
+      <c r="D221" s="31"/>
+      <c r="E221" s="31"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="23"/>
+      <c r="H221" s="22"/>
+      <c r="I221" s="23"/>
+      <c r="J221" s="22"/>
+      <c r="K221" s="23"/>
+    </row>
+    <row r="222" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="13">
         <v>13</v>
       </c>
-      <c r="B181" s="28" t="s">
+      <c r="B222" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
-      <c r="F181" s="20">
-        <v>2</v>
-      </c>
-      <c r="G181" s="21"/>
-      <c r="H181" s="20">
-        <v>5</v>
-      </c>
-      <c r="I181" s="21"/>
-      <c r="J181" s="20">
-        <v>8</v>
-      </c>
-      <c r="K181" s="21"/>
-    </row>
-    <row r="182" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="13">
+      <c r="C222" s="31"/>
+      <c r="D222" s="31"/>
+      <c r="E222" s="31"/>
+      <c r="F222" s="22"/>
+      <c r="G222" s="23"/>
+      <c r="H222" s="22"/>
+      <c r="I222" s="23"/>
+      <c r="J222" s="22"/>
+      <c r="K222" s="23"/>
+    </row>
+    <row r="223" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="13">
         <v>14</v>
       </c>
-      <c r="B182" s="28" t="s">
+      <c r="B223" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C182" s="28"/>
-      <c r="D182" s="28"/>
-      <c r="E182" s="28"/>
-      <c r="F182" s="20">
-        <v>23</v>
-      </c>
-      <c r="G182" s="21"/>
-      <c r="H182" s="20">
-        <v>28</v>
-      </c>
-      <c r="I182" s="21"/>
-      <c r="J182" s="20">
-        <v>35</v>
-      </c>
-      <c r="K182" s="21"/>
+      <c r="C223" s="31"/>
+      <c r="D223" s="31"/>
+      <c r="E223" s="31"/>
+      <c r="F223" s="22"/>
+      <c r="G223" s="23"/>
+      <c r="H223" s="22"/>
+      <c r="I223" s="23"/>
+      <c r="J223" s="22"/>
+      <c r="K223" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A137:K138"/>
-    <mergeCell ref="A139:G139"/>
-    <mergeCell ref="A140:G140"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="B135:K135"/>
-    <mergeCell ref="B124:K134"/>
+    <mergeCell ref="A157:K181"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="A195:G195"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="A184:K185"/>
+    <mergeCell ref="A186:G186"/>
+    <mergeCell ref="A187:G187"/>
+    <mergeCell ref="B189:G189"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="H191:I191"/>
     <mergeCell ref="A31:K34"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A99:L99"/>
-    <mergeCell ref="A104:I104"/>
-    <mergeCell ref="A105:I105"/>
-    <mergeCell ref="A106:I106"/>
-    <mergeCell ref="A107:I107"/>
-    <mergeCell ref="A108:I108"/>
-    <mergeCell ref="A109:I109"/>
-    <mergeCell ref="A110:I110"/>
-    <mergeCell ref="A111:I111"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="A113:I113"/>
-    <mergeCell ref="A114:I114"/>
-    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="A116:I116"/>
+    <mergeCell ref="A117:I117"/>
     <mergeCell ref="A118:I118"/>
     <mergeCell ref="A119:I119"/>
     <mergeCell ref="A120:I120"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B180:E180"/>
-    <mergeCell ref="B181:E181"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B169:E169"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="B173:E173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H173:I173"/>
     <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A82:K105"/>
+    <mergeCell ref="A54:K78"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="F209:G209"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="B213:E213"/>
+    <mergeCell ref="B214:E214"/>
+    <mergeCell ref="B215:E215"/>
+    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="A79:K81"/>
+    <mergeCell ref="A106:K106"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="J134:K134"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="J118:K118"/>
     <mergeCell ref="J119:K119"/>
     <mergeCell ref="J120:K120"/>
     <mergeCell ref="J121:K121"/>
     <mergeCell ref="J122:K122"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="B69:K71"/>
-    <mergeCell ref="B48:K67"/>
-    <mergeCell ref="B84:K84"/>
-    <mergeCell ref="B74:K82"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -4921,6 +5175,11 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:G10"/>
@@ -4933,67 +5192,78 @@
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="G6:K6"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="A96:K97"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A117:K117"/>
-    <mergeCell ref="A165:K166"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="J170:K170"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="J168:K168"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="F177:G177"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="J172:K172"/>
-    <mergeCell ref="J171:K171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="F171:G171"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="J182:K182"/>
-    <mergeCell ref="J181:K181"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="F181:G181"/>
-    <mergeCell ref="F180:G180"/>
-    <mergeCell ref="F179:G179"/>
-    <mergeCell ref="F178:G178"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="H180:I180"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="A108:K109"/>
+    <mergeCell ref="A134:I134"/>
+    <mergeCell ref="A129:K129"/>
+    <mergeCell ref="A206:K207"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="A182:K182"/>
+    <mergeCell ref="A111:K111"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="A124:I124"/>
+    <mergeCell ref="A125:I125"/>
+    <mergeCell ref="A126:I126"/>
+    <mergeCell ref="A127:I127"/>
+    <mergeCell ref="A130:I130"/>
+    <mergeCell ref="A131:I131"/>
+    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="A133:I133"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="J212:K212"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="F223:G223"/>
+    <mergeCell ref="F222:G222"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="F220:G220"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="H217:I217"/>
   </mergeCells>
+  <phoneticPr fontId="28" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H139" xr:uid="{1B36E749-2EB7-4035-BB0B-CF4AC9068D03}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H186" xr:uid="{1B36E749-2EB7-4035-BB0B-CF4AC9068D03}">
       <formula1>Скв</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H147" xr:uid="{54C2613E-4920-4903-9CD0-F91AA17F6018}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H194" xr:uid="{54C2613E-4920-4903-9CD0-F91AA17F6018}">
       <formula1>Свойства</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H143" xr:uid="{95308981-B042-402D-80C1-79C6647BE69D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H190" xr:uid="{95308981-B042-402D-80C1-79C6647BE69D}">
       <formula1>СРР</formula1>
     </dataValidation>
   </dataValidations>
@@ -5003,15 +5273,1255 @@
     <oddHeader>&amp;R&amp;"Times New Roman,обычный"&amp;14&amp;D</oddHeader>
     <oddFooter>&amp;R&amp;"Times New Roman,обычный"&amp;12&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61271CF-AC86-4562-8C38-B72111CE1D75}">
+  <dimension ref="A1:W58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:K58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+    </row>
+    <row r="2" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+    </row>
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="68"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="68"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="68"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="68"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="68"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="68"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="68"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="68"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="68"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="68"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="68"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="68"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="68"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="68"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="68"/>
+      <c r="Q50" s="68"/>
+      <c r="R50" s="68"/>
+      <c r="S50" s="68"/>
+      <c r="T50" s="68"/>
+      <c r="U50" s="68"/>
+      <c r="V50" s="68"/>
+      <c r="W50" s="68"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="68"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="68"/>
+      <c r="Q51" s="68"/>
+      <c r="R51" s="68"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="68"/>
+      <c r="U51" s="68"/>
+      <c r="V51" s="68"/>
+      <c r="W51" s="68"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="68"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="68"/>
+      <c r="Q52" s="68"/>
+      <c r="R52" s="68"/>
+      <c r="S52" s="68"/>
+      <c r="T52" s="68"/>
+      <c r="U52" s="68"/>
+      <c r="V52" s="68"/>
+      <c r="W52" s="68"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="68"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="68"/>
+      <c r="Q53" s="68"/>
+      <c r="R53" s="68"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="68"/>
+      <c r="U53" s="68"/>
+      <c r="V53" s="68"/>
+      <c r="W53" s="68"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="68"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="68"/>
+      <c r="Q54" s="68"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="68"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="68"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="68"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="68"/>
+      <c r="W55" s="68"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" s="68"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" s="68"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" s="68"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="M9:W32"/>
+    <mergeCell ref="A9:K32"/>
+    <mergeCell ref="A35:K58"/>
+    <mergeCell ref="M35:W58"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:D7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>E1:M7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9A6887-DF7D-4252-9B7A-98675D4E01E3}">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -5028,85 +6538,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -5121,236 +6631,236 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29" t="s">
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="29"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="36" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="36" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36" t="s">
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="36" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>6</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="36" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="36" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="36" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>9</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="36" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="1">
         <v>1000</v>
       </c>
@@ -5453,62 +6963,62 @@
       <c r="L30"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="str">
+      <c r="A31" s="61" t="str">
         <f>"Выводы: по сценариям Р90, Р50, Р10 получилось, что с вероятностью 90% начальные геологические запасы газа составят "&amp;C25&amp;" млрд м3, с вероятностью 50% - "&amp;C27&amp;" млрд м3,  с вероятностью 10% - "&amp;C29&amp;" млрд м3"</f>
         <v>Выводы: по сценариям Р90, Р50, Р10 получилось, что с вероятностью 90% начальные геологические запасы газа составят 6655,5 млрд м3, с вероятностью 50% - 8530,8 млрд м3,  с вероятностью 10% - 10406,1 млрд м3</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
       <c r="L31"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5671,262 +7181,262 @@
       <c r="L47"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
       <c r="L48"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
       <c r="L49"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
       <c r="L50"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
       <c r="L51"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
       <c r="L52"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
       <c r="L53"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
       <c r="L54"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
       <c r="L55"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
       <c r="L56"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
       <c r="L57"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
       <c r="L58"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
       <c r="L59"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
       <c r="L60"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
       <c r="L61"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="45"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
       <c r="L63"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="45"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
       <c r="L64"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
       <c r="L65"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="45"/>
-      <c r="K66" s="45"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
       <c r="L66"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="73"/>
       <c r="L67"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -5943,44 +7453,44 @@
       <c r="L68"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
       <c r="L69"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
       <c r="L70"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
       <c r="L71"/>
     </row>
     <row r="72" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
@@ -6010,120 +7520,120 @@
       <c r="L73"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="45"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
       <c r="L74"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
-      <c r="K75" s="45"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="73"/>
       <c r="L75"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="45"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="73"/>
+      <c r="K76" s="73"/>
       <c r="L76"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
+      <c r="B77" s="73"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="73"/>
       <c r="L77"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="73"/>
+      <c r="J78" s="73"/>
+      <c r="K78" s="73"/>
       <c r="L78"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="45"/>
+      <c r="B79" s="73"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="73"/>
       <c r="L79"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="45"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="73"/>
       <c r="L80"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="73"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="73"/>
+      <c r="J81" s="73"/>
+      <c r="K81" s="73"/>
       <c r="L81"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="45"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="45"/>
-      <c r="K82" s="45"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="73"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="73"/>
       <c r="L82"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -6140,18 +7650,18 @@
       <c r="L83"/>
     </row>
     <row r="84" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B84" s="44" t="s">
+      <c r="B84" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="44"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
       <c r="L84"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -6298,360 +7808,360 @@
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
       <c r="L96" s="11"/>
     </row>
     <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="34"/>
       <c r="L97" s="11"/>
     </row>
     <row r="99" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="49" t="s">
+      <c r="A99" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="B99" s="49"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49"/>
-      <c r="L99" s="49"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+      <c r="K99" s="72"/>
+      <c r="L99" s="72"/>
     </row>
     <row r="101" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27" t="s">
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27" t="s">
+      <c r="F101" s="33"/>
+      <c r="G101" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27" t="s">
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K101" s="27"/>
+      <c r="K101" s="33"/>
     </row>
     <row r="102" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="26" t="s">
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F102" s="26"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
     </row>
     <row r="104" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="27" t="s">
+      <c r="A104" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27" t="s">
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K104" s="27"/>
+      <c r="K104" s="33"/>
     </row>
     <row r="105" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="39"/>
-      <c r="K105" s="40"/>
+      <c r="B105" s="62"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="62"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="62"/>
+      <c r="I105" s="62"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="37"/>
     </row>
     <row r="106" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="42"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="62"/>
+      <c r="I106" s="62"/>
+      <c r="J106" s="57"/>
+      <c r="K106" s="58"/>
     </row>
     <row r="107" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="30" t="s">
+      <c r="A107" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="30"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="42"/>
+      <c r="B107" s="62"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="62"/>
+      <c r="I107" s="62"/>
+      <c r="J107" s="57"/>
+      <c r="K107" s="58"/>
     </row>
     <row r="108" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A108" s="30" t="s">
+      <c r="A108" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30"/>
-      <c r="J108" s="41"/>
-      <c r="K108" s="42"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="62"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="62"/>
+      <c r="I108" s="62"/>
+      <c r="J108" s="57"/>
+      <c r="K108" s="58"/>
     </row>
     <row r="109" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="30" t="s">
+      <c r="A109" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="41"/>
-      <c r="K109" s="42"/>
+      <c r="B109" s="62"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="62"/>
+      <c r="E109" s="62"/>
+      <c r="F109" s="62"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="62"/>
+      <c r="I109" s="62"/>
+      <c r="J109" s="57"/>
+      <c r="K109" s="58"/>
     </row>
     <row r="110" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
-      <c r="I110" s="30"/>
-      <c r="J110" s="41"/>
-      <c r="K110" s="42"/>
+      <c r="B110" s="62"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="62"/>
+      <c r="G110" s="62"/>
+      <c r="H110" s="62"/>
+      <c r="I110" s="62"/>
+      <c r="J110" s="57"/>
+      <c r="K110" s="58"/>
     </row>
     <row r="111" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
-      <c r="I111" s="30"/>
-      <c r="J111" s="41"/>
-      <c r="K111" s="42"/>
+      <c r="B111" s="62"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="62"/>
+      <c r="F111" s="62"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="62"/>
+      <c r="I111" s="62"/>
+      <c r="J111" s="57"/>
+      <c r="K111" s="58"/>
     </row>
     <row r="112" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="30"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="42"/>
+      <c r="B112" s="62"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="62"/>
+      <c r="F112" s="62"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="62"/>
+      <c r="I112" s="62"/>
+      <c r="J112" s="57"/>
+      <c r="K112" s="58"/>
     </row>
     <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="41"/>
-      <c r="K113" s="42"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="62"/>
+      <c r="I113" s="62"/>
+      <c r="J113" s="57"/>
+      <c r="K113" s="58"/>
     </row>
     <row r="114" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="30" t="s">
+      <c r="A114" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="41"/>
-      <c r="K114" s="42"/>
+      <c r="B114" s="62"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="62"/>
+      <c r="E114" s="62"/>
+      <c r="F114" s="62"/>
+      <c r="G114" s="62"/>
+      <c r="H114" s="62"/>
+      <c r="I114" s="62"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="58"/>
     </row>
     <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="30" t="s">
+      <c r="A115" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="30"/>
-      <c r="I115" s="30"/>
-      <c r="J115" s="41"/>
-      <c r="K115" s="42"/>
+      <c r="B115" s="62"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="62"/>
+      <c r="H115" s="62"/>
+      <c r="I115" s="62"/>
+      <c r="J115" s="57"/>
+      <c r="K115" s="58"/>
     </row>
     <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="31" t="s">
+      <c r="A117" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B117" s="31"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
-      <c r="K117" s="31"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="38"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="38"/>
+      <c r="J117" s="38"/>
+      <c r="K117" s="38"/>
     </row>
     <row r="118" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A118" s="30" t="s">
+      <c r="A118" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="30"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="30"/>
-      <c r="I118" s="30"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
+      <c r="B118" s="62"/>
+      <c r="C118" s="62"/>
+      <c r="D118" s="62"/>
+      <c r="E118" s="62"/>
+      <c r="F118" s="62"/>
+      <c r="G118" s="62"/>
+      <c r="H118" s="62"/>
+      <c r="I118" s="62"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="33"/>
     </row>
     <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A119" s="30" t="s">
+      <c r="A119" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="30"/>
-      <c r="I119" s="30"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="27"/>
+      <c r="B119" s="62"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="62"/>
+      <c r="H119" s="62"/>
+      <c r="I119" s="62"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="33"/>
     </row>
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="30"/>
-      <c r="I120" s="30"/>
-      <c r="J120" s="27"/>
-      <c r="K120" s="27"/>
+      <c r="B120" s="62"/>
+      <c r="C120" s="62"/>
+      <c r="D120" s="62"/>
+      <c r="E120" s="62"/>
+      <c r="F120" s="62"/>
+      <c r="G120" s="62"/>
+      <c r="H120" s="62"/>
+      <c r="I120" s="62"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="33"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A121" s="30" t="s">
+      <c r="A121" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="30"/>
-      <c r="I121" s="30"/>
-      <c r="J121" s="27"/>
-      <c r="K121" s="27"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="62"/>
+      <c r="D121" s="62"/>
+      <c r="E121" s="62"/>
+      <c r="F121" s="62"/>
+      <c r="G121" s="62"/>
+      <c r="H121" s="62"/>
+      <c r="I121" s="62"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="33"/>
     </row>
     <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="30" t="s">
+      <c r="A122" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="30"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="30"/>
-      <c r="I122" s="30"/>
-      <c r="J122" s="27"/>
-      <c r="K122" s="27"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="62"/>
+      <c r="D122" s="62"/>
+      <c r="E122" s="62"/>
+      <c r="F122" s="62"/>
+      <c r="G122" s="62"/>
+      <c r="H122" s="62"/>
+      <c r="I122" s="62"/>
+      <c r="J122" s="33"/>
+      <c r="K122" s="33"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
@@ -6668,152 +8178,152 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
-      <c r="B124" s="47"/>
-      <c r="C124" s="47"/>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="47"/>
-      <c r="G124" s="47"/>
-      <c r="H124" s="47"/>
-      <c r="I124" s="47"/>
-      <c r="J124" s="47"/>
-      <c r="K124" s="47"/>
+      <c r="B124" s="71"/>
+      <c r="C124" s="71"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="71"/>
+      <c r="J124" s="71"/>
+      <c r="K124" s="71"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
-      <c r="B125" s="47"/>
-      <c r="C125" s="47"/>
-      <c r="D125" s="47"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="47"/>
-      <c r="H125" s="47"/>
-      <c r="I125" s="47"/>
-      <c r="J125" s="47"/>
-      <c r="K125" s="47"/>
+      <c r="B125" s="71"/>
+      <c r="C125" s="71"/>
+      <c r="D125" s="71"/>
+      <c r="E125" s="71"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="71"/>
+      <c r="I125" s="71"/>
+      <c r="J125" s="71"/>
+      <c r="K125" s="71"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
-      <c r="B126" s="47"/>
-      <c r="C126" s="47"/>
-      <c r="D126" s="47"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="47"/>
-      <c r="H126" s="47"/>
-      <c r="I126" s="47"/>
-      <c r="J126" s="47"/>
-      <c r="K126" s="47"/>
+      <c r="B126" s="71"/>
+      <c r="C126" s="71"/>
+      <c r="D126" s="71"/>
+      <c r="E126" s="71"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="71"/>
+      <c r="J126" s="71"/>
+      <c r="K126" s="71"/>
     </row>
     <row r="127" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="47"/>
-      <c r="C127" s="47"/>
-      <c r="D127" s="47"/>
-      <c r="E127" s="47"/>
-      <c r="F127" s="47"/>
-      <c r="G127" s="47"/>
-      <c r="H127" s="47"/>
-      <c r="I127" s="47"/>
-      <c r="J127" s="47"/>
-      <c r="K127" s="47"/>
+      <c r="B127" s="71"/>
+      <c r="C127" s="71"/>
+      <c r="D127" s="71"/>
+      <c r="E127" s="71"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="71"/>
+      <c r="H127" s="71"/>
+      <c r="I127" s="71"/>
+      <c r="J127" s="71"/>
+      <c r="K127" s="71"/>
     </row>
     <row r="128" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="47"/>
-      <c r="C128" s="47"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="47"/>
-      <c r="I128" s="47"/>
-      <c r="J128" s="47"/>
-      <c r="K128" s="47"/>
+      <c r="B128" s="71"/>
+      <c r="C128" s="71"/>
+      <c r="D128" s="71"/>
+      <c r="E128" s="71"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="71"/>
+      <c r="J128" s="71"/>
+      <c r="K128" s="71"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B129" s="47"/>
-      <c r="C129" s="47"/>
-      <c r="D129" s="47"/>
-      <c r="E129" s="47"/>
-      <c r="F129" s="47"/>
-      <c r="G129" s="47"/>
-      <c r="H129" s="47"/>
-      <c r="I129" s="47"/>
-      <c r="J129" s="47"/>
-      <c r="K129" s="47"/>
+      <c r="B129" s="71"/>
+      <c r="C129" s="71"/>
+      <c r="D129" s="71"/>
+      <c r="E129" s="71"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="71"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="71"/>
+      <c r="J129" s="71"/>
+      <c r="K129" s="71"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B130" s="47"/>
-      <c r="C130" s="47"/>
-      <c r="D130" s="47"/>
-      <c r="E130" s="47"/>
-      <c r="F130" s="47"/>
-      <c r="G130" s="47"/>
-      <c r="H130" s="47"/>
-      <c r="I130" s="47"/>
-      <c r="J130" s="47"/>
-      <c r="K130" s="47"/>
+      <c r="B130" s="71"/>
+      <c r="C130" s="71"/>
+      <c r="D130" s="71"/>
+      <c r="E130" s="71"/>
+      <c r="F130" s="71"/>
+      <c r="G130" s="71"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="71"/>
+      <c r="J130" s="71"/>
+      <c r="K130" s="71"/>
     </row>
     <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="47"/>
-      <c r="C131" s="47"/>
-      <c r="D131" s="47"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="47"/>
-      <c r="H131" s="47"/>
-      <c r="I131" s="47"/>
-      <c r="J131" s="47"/>
-      <c r="K131" s="47"/>
+      <c r="B131" s="71"/>
+      <c r="C131" s="71"/>
+      <c r="D131" s="71"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="71"/>
+      <c r="J131" s="71"/>
+      <c r="K131" s="71"/>
     </row>
     <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="47"/>
-      <c r="C132" s="47"/>
-      <c r="D132" s="47"/>
-      <c r="E132" s="47"/>
-      <c r="F132" s="47"/>
-      <c r="G132" s="47"/>
-      <c r="H132" s="47"/>
-      <c r="I132" s="47"/>
-      <c r="J132" s="47"/>
-      <c r="K132" s="47"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="71"/>
+      <c r="D132" s="71"/>
+      <c r="E132" s="71"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="71"/>
+      <c r="J132" s="71"/>
+      <c r="K132" s="71"/>
     </row>
     <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="47"/>
-      <c r="C133" s="47"/>
-      <c r="D133" s="47"/>
-      <c r="E133" s="47"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="47"/>
-      <c r="H133" s="47"/>
-      <c r="I133" s="47"/>
-      <c r="J133" s="47"/>
-      <c r="K133" s="47"/>
+      <c r="B133" s="71"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="71"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="71"/>
+      <c r="J133" s="71"/>
+      <c r="K133" s="71"/>
     </row>
     <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="47"/>
-      <c r="C134" s="47"/>
-      <c r="D134" s="47"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="47"/>
-      <c r="H134" s="47"/>
-      <c r="I134" s="47"/>
-      <c r="J134" s="47"/>
-      <c r="K134" s="47"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="71"/>
+      <c r="E134" s="71"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="71"/>
+      <c r="I134" s="71"/>
+      <c r="J134" s="71"/>
+      <c r="K134" s="71"/>
     </row>
     <row r="135" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="46" t="s">
+      <c r="B135" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C135" s="46"/>
-      <c r="D135" s="46"/>
-      <c r="E135" s="46"/>
-      <c r="F135" s="46"/>
-      <c r="G135" s="46"/>
-      <c r="H135" s="46"/>
-      <c r="I135" s="46"/>
-      <c r="J135" s="46"/>
-      <c r="K135" s="46"/>
+      <c r="C135" s="39"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="39"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="39"/>
+      <c r="I135" s="39"/>
+      <c r="J135" s="39"/>
+      <c r="K135" s="39"/>
     </row>
     <row r="136" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="14"/>
@@ -6828,33 +8338,33 @@
       <c r="K136" s="14"/>
     </row>
     <row r="137" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="23" t="s">
+      <c r="A137" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23"/>
-      <c r="H137" s="23"/>
-      <c r="I137" s="23"/>
-      <c r="J137" s="23"/>
-      <c r="K137" s="23"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="34"/>
+      <c r="J137" s="34"/>
+      <c r="K137" s="34"/>
       <c r="L137" s="11"/>
     </row>
     <row r="138" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="23"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="23"/>
-      <c r="G138" s="23"/>
-      <c r="H138" s="23"/>
-      <c r="I138" s="23"/>
-      <c r="J138" s="23"/>
-      <c r="K138" s="23"/>
+      <c r="A138" s="34"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="34"/>
+      <c r="J138" s="34"/>
+      <c r="K138" s="34"/>
       <c r="L138" s="11"/>
     </row>
     <row r="139" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6862,262 +8372,262 @@
       <c r="A140" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B140" s="26" t="s">
+      <c r="B140" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26" t="s">
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26" t="s">
+      <c r="G140" s="28"/>
+      <c r="H140" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I140" s="26"/>
-      <c r="J140" s="26" t="s">
+      <c r="I140" s="28"/>
+      <c r="J140" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K140" s="26"/>
+      <c r="K140" s="28"/>
     </row>
     <row r="141" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="13">
         <v>1</v>
       </c>
-      <c r="B141" s="28" t="s">
+      <c r="B141" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="50"/>
-      <c r="G141" s="51"/>
-      <c r="H141" s="41"/>
-      <c r="I141" s="42"/>
-      <c r="J141" s="41"/>
-      <c r="K141" s="42"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="69"/>
+      <c r="G141" s="70"/>
+      <c r="H141" s="57"/>
+      <c r="I141" s="58"/>
+      <c r="J141" s="57"/>
+      <c r="K141" s="58"/>
     </row>
     <row r="142" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="13">
         <v>2</v>
       </c>
-      <c r="B142" s="28" t="s">
+      <c r="B142" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="41"/>
-      <c r="G142" s="42"/>
-      <c r="H142" s="41"/>
-      <c r="I142" s="42"/>
-      <c r="J142" s="41"/>
-      <c r="K142" s="42"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="57"/>
+      <c r="G142" s="58"/>
+      <c r="H142" s="57"/>
+      <c r="I142" s="58"/>
+      <c r="J142" s="57"/>
+      <c r="K142" s="58"/>
     </row>
     <row r="143" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="13">
         <v>3</v>
       </c>
-      <c r="B143" s="28" t="s">
+      <c r="B143" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="41"/>
-      <c r="G143" s="42"/>
-      <c r="H143" s="41"/>
-      <c r="I143" s="42"/>
-      <c r="J143" s="41"/>
-      <c r="K143" s="42"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="58"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="58"/>
+      <c r="J143" s="57"/>
+      <c r="K143" s="58"/>
     </row>
     <row r="144" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="13">
         <v>4</v>
       </c>
-      <c r="B144" s="28" t="s">
+      <c r="B144" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="41"/>
-      <c r="G144" s="42"/>
-      <c r="H144" s="41"/>
-      <c r="I144" s="42"/>
-      <c r="J144" s="41"/>
-      <c r="K144" s="42"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="57"/>
+      <c r="G144" s="58"/>
+      <c r="H144" s="57"/>
+      <c r="I144" s="58"/>
+      <c r="J144" s="57"/>
+      <c r="K144" s="58"/>
     </row>
     <row r="145" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="13">
         <v>5</v>
       </c>
-      <c r="B145" s="28" t="s">
+      <c r="B145" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="41"/>
-      <c r="G145" s="42"/>
-      <c r="H145" s="41"/>
-      <c r="I145" s="42"/>
-      <c r="J145" s="41"/>
-      <c r="K145" s="42"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="57"/>
+      <c r="G145" s="58"/>
+      <c r="H145" s="57"/>
+      <c r="I145" s="58"/>
+      <c r="J145" s="57"/>
+      <c r="K145" s="58"/>
     </row>
     <row r="146" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="13">
         <v>6</v>
       </c>
-      <c r="B146" s="28" t="s">
+      <c r="B146" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="41"/>
-      <c r="G146" s="42"/>
-      <c r="H146" s="41"/>
-      <c r="I146" s="42"/>
-      <c r="J146" s="41"/>
-      <c r="K146" s="42"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="57"/>
+      <c r="G146" s="58"/>
+      <c r="H146" s="57"/>
+      <c r="I146" s="58"/>
+      <c r="J146" s="57"/>
+      <c r="K146" s="58"/>
     </row>
     <row r="147" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="13">
         <v>7</v>
       </c>
-      <c r="B147" s="28" t="s">
+      <c r="B147" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="41"/>
-      <c r="G147" s="42"/>
-      <c r="H147" s="41"/>
-      <c r="I147" s="42"/>
-      <c r="J147" s="41"/>
-      <c r="K147" s="42"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="57"/>
+      <c r="G147" s="58"/>
+      <c r="H147" s="57"/>
+      <c r="I147" s="58"/>
+      <c r="J147" s="57"/>
+      <c r="K147" s="58"/>
     </row>
     <row r="148" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="13">
         <v>8</v>
       </c>
-      <c r="B148" s="28" t="s">
+      <c r="B148" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="41"/>
-      <c r="G148" s="42"/>
-      <c r="H148" s="41"/>
-      <c r="I148" s="42"/>
-      <c r="J148" s="41"/>
-      <c r="K148" s="42"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="57"/>
+      <c r="G148" s="58"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="58"/>
+      <c r="J148" s="57"/>
+      <c r="K148" s="58"/>
     </row>
     <row r="149" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="13">
         <v>9</v>
       </c>
-      <c r="B149" s="28" t="s">
+      <c r="B149" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="41"/>
-      <c r="G149" s="42"/>
-      <c r="H149" s="41"/>
-      <c r="I149" s="42"/>
-      <c r="J149" s="41"/>
-      <c r="K149" s="42"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="58"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="58"/>
+      <c r="J149" s="57"/>
+      <c r="K149" s="58"/>
     </row>
     <row r="150" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="13">
         <v>10</v>
       </c>
-      <c r="B150" s="28" t="s">
+      <c r="B150" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="41"/>
-      <c r="G150" s="42"/>
-      <c r="H150" s="41"/>
-      <c r="I150" s="42"/>
-      <c r="J150" s="41"/>
-      <c r="K150" s="42"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="57"/>
+      <c r="G150" s="58"/>
+      <c r="H150" s="57"/>
+      <c r="I150" s="58"/>
+      <c r="J150" s="57"/>
+      <c r="K150" s="58"/>
     </row>
     <row r="151" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="13">
         <v>11</v>
       </c>
-      <c r="B151" s="28" t="s">
+      <c r="B151" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="41"/>
-      <c r="G151" s="42"/>
-      <c r="H151" s="41"/>
-      <c r="I151" s="42"/>
-      <c r="J151" s="41"/>
-      <c r="K151" s="42"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="57"/>
+      <c r="G151" s="58"/>
+      <c r="H151" s="57"/>
+      <c r="I151" s="58"/>
+      <c r="J151" s="57"/>
+      <c r="K151" s="58"/>
     </row>
     <row r="152" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="13">
         <v>12</v>
       </c>
-      <c r="B152" s="28" t="s">
+      <c r="B152" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="28"/>
-      <c r="F152" s="41"/>
-      <c r="G152" s="42"/>
-      <c r="H152" s="41"/>
-      <c r="I152" s="42"/>
-      <c r="J152" s="41"/>
-      <c r="K152" s="42"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="57"/>
+      <c r="G152" s="58"/>
+      <c r="H152" s="57"/>
+      <c r="I152" s="58"/>
+      <c r="J152" s="57"/>
+      <c r="K152" s="58"/>
     </row>
     <row r="153" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="13">
         <v>13</v>
       </c>
-      <c r="B153" s="28" t="s">
+      <c r="B153" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="41"/>
-      <c r="G153" s="42"/>
-      <c r="H153" s="41"/>
-      <c r="I153" s="42"/>
-      <c r="J153" s="41"/>
-      <c r="K153" s="42"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="58"/>
+      <c r="H153" s="57"/>
+      <c r="I153" s="58"/>
+      <c r="J153" s="57"/>
+      <c r="K153" s="58"/>
     </row>
     <row r="154" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="13">
         <v>14</v>
       </c>
-      <c r="B154" s="28" t="s">
+      <c r="B154" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C154" s="28"/>
-      <c r="D154" s="28"/>
-      <c r="E154" s="28"/>
-      <c r="F154" s="41"/>
-      <c r="G154" s="42"/>
-      <c r="H154" s="41"/>
-      <c r="I154" s="42"/>
-      <c r="J154" s="41"/>
-      <c r="K154" s="42"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="58"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="58"/>
+      <c r="J154" s="57"/>
+      <c r="K154" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="162">
